--- a/output/SharedMedicinesList/medication-dh-base-1.xlsx
+++ b/output/SharedMedicinesList/medication-dh-base-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$75</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="367">
   <si>
     <t>Path</t>
   </si>
@@ -583,22 +583,29 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>Medication.code.coding.extension.valueCoding</t>
+    <t>Medication.code.coding.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>valueCoding</t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
     <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Medication.code.coding.system</t>
@@ -941,9 +948,6 @@
     <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
   </si>
   <si>
-    <t>Medication.ingredient.itemCodeableConcept</t>
-  </si>
-  <si>
     <t>itemCodeableConcept</t>
   </si>
   <si>
@@ -953,13 +957,13 @@
     <t>Coding for a substance or medicinal product  that is an ingredient of the medication.</t>
   </si>
   <si>
-    <t>Medication.ingredient.itemCodeableConcept.id</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.itemCodeableConcept.extension</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.itemCodeableConcept.coding</t>
+    <t>Medication.ingredient.item[x].id</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].extension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].coding</t>
   </si>
   <si>
     <t>amtMP</t>
@@ -971,7 +975,7 @@
     <t>http://hl7.org.au/fhir/ValueSet/amt-mp-codes</t>
   </si>
   <si>
-    <t>Medication.ingredient.itemCodeableConcept.text</t>
+    <t>Medication.ingredient.item[x].text</t>
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
@@ -1312,7 +1316,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM74"/>
+  <dimension ref="A1:AM75"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1321,7 +1325,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.6953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.48828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.9296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4139,15 +4143,13 @@
       <c r="A26" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="B26" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>50</v>
@@ -4165,10 +4167,10 @@
         <v>142</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4195,28 +4197,26 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AB26" s="2"/>
+      <c r="AC26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD26" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>182</v>
@@ -4248,15 +4248,17 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
@@ -4268,23 +4270,19 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4308,13 +4306,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4332,7 +4330,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4350,18 +4348,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>190</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4384,18 +4382,20 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4461,18 +4461,18 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4495,18 +4495,18 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4572,18 +4572,18 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4606,17 +4606,17 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4665,7 +4665,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4683,18 +4683,18 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4717,19 +4717,17 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4778,7 +4776,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4796,22 +4794,20 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4832,19 +4828,19 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4869,11 +4865,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4891,13 +4889,13 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4909,20 +4907,22 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>150</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4943,19 +4943,19 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4980,13 +4980,11 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -5004,13 +5002,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -5022,18 +5020,18 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5056,18 +5054,20 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5091,13 +5091,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -5115,36 +5115,36 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5167,15 +5167,17 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>213</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5200,13 +5202,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5224,7 +5226,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5239,13 +5241,13 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5253,7 +5255,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5276,13 +5278,13 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5333,25 +5335,25 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>128</v>
@@ -5360,9 +5362,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5376,7 +5378,7 @@
         <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -5385,13 +5387,13 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5442,7 +5444,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5457,21 +5459,21 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5491,20 +5493,18 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5529,13 +5529,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5553,36 +5553,36 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5596,7 +5596,7 @@
         <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
@@ -5605,15 +5605,17 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5638,13 +5640,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5662,7 +5664,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5677,32 +5679,32 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5714,17 +5716,15 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5761,25 +5761,25 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5802,18 +5802,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5822,23 +5822,21 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5874,9 +5872,11 @@
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AB41" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>99</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5902,22 +5902,20 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B42" t="s" s="2">
         <v>268</v>
       </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
@@ -5941,7 +5939,7 @@
         <v>142</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>144</v>
@@ -5975,26 +5973,26 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>148</v>
@@ -6026,9 +6024,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6049,19 +6049,19 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6086,13 +6086,11 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6110,13 +6108,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -6128,18 +6126,18 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6150,30 +6148,32 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J44" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6221,36 +6221,36 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6261,10 +6261,10 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
@@ -6273,15 +6273,17 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>131</v>
+        <v>277</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>278</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6330,25 +6332,25 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>134</v>
+        <v>276</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6359,18 +6361,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6382,17 +6384,15 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6441,13 +6441,13 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6470,11 +6470,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6487,19 +6487,19 @@
         <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>115</v>
@@ -6552,7 +6552,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>286</v>
+        <v>140</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6570,7 +6570,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6579,40 +6579,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6661,13 +6663,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6676,25 +6678,23 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>292</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -6715,13 +6715,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>118</v>
+        <v>290</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6760,19 +6760,17 @@
         <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>50</v>
@@ -6790,26 +6788,28 @@
         <v>126</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>50</v>
@@ -6824,13 +6824,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6881,10 +6881,10 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>134</v>
+        <v>289</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>50</v>
@@ -6896,16 +6896,16 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -6914,14 +6914,14 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -6933,17 +6933,15 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6980,25 +6978,25 @@
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7025,7 +7023,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7041,23 +7039,21 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7093,9 +7089,11 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AB52" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7103,7 +7101,7 @@
         <v>99</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7121,22 +7119,20 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B53" t="s" s="2">
         <v>300</v>
       </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7145,7 +7141,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7160,7 +7156,7 @@
         <v>142</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>301</v>
+        <v>143</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>144</v>
@@ -7194,26 +7190,26 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>148</v>
@@ -7245,9 +7241,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7268,19 +7266,19 @@
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7305,13 +7303,11 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7329,13 +7325,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7347,16 +7343,16 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>304</v>
       </c>
@@ -7372,26 +7368,28 @@
         <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7440,7 +7438,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7458,18 +7456,18 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7492,16 +7490,18 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" s="2"/>
+      <c r="N56" t="s" s="2">
+        <v>308</v>
+      </c>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7564,21 +7564,21 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>312</v>
+        <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>313</v>
+        <v>249</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>314</v>
+        <v>40</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7601,13 +7601,13 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>275</v>
+        <v>310</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7658,36 +7658,36 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM57" t="s" s="2">
         <v>315</v>
       </c>
-      <c r="AF57" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG57" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI57" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AJ57" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AK57" t="s" s="2">
-        <v>318</v>
-      </c>
-      <c r="AL57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM57" t="s" s="2">
-        <v>40</v>
-      </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7701,7 +7701,7 @@
         <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
@@ -7710,13 +7710,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>131</v>
+        <v>277</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>317</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>133</v>
+        <v>318</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7767,7 +7767,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>134</v>
+        <v>316</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7779,13 +7779,13 @@
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>135</v>
+        <v>319</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7800,14 +7800,14 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -7819,17 +7819,15 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7878,13 +7876,13 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -7911,7 +7909,7 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7924,19 +7922,19 @@
         <v>40</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>115</v>
@@ -7989,7 +7987,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>286</v>
+        <v>140</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8007,7 +8005,7 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -8022,34 +8020,36 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>323</v>
+        <v>113</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8074,13 +8074,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
@@ -8098,13 +8098,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>322</v>
+        <v>288</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8113,10 +8113,10 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>127</v>
+        <v>93</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8127,7 +8127,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8138,7 +8138,7 @@
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8150,13 +8150,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8183,13 +8183,13 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>40</v>
+        <v>327</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
@@ -8207,25 +8207,25 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>330</v>
+        <v>127</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8247,7 +8247,7 @@
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8259,13 +8259,13 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>131</v>
+        <v>277</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>132</v>
+        <v>329</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>133</v>
+        <v>330</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8316,25 +8316,25 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>134</v>
+        <v>328</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>135</v>
+        <v>331</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8349,14 +8349,14 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -8368,17 +8368,15 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8427,13 +8425,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8460,7 +8458,7 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8473,19 +8471,19 @@
         <v>40</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>115</v>
@@ -8538,7 +8536,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>286</v>
+        <v>140</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8556,7 +8554,7 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -8571,34 +8569,36 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>335</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>336</v>
+        <v>113</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8647,13 +8647,13 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>334</v>
+        <v>288</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
@@ -8662,10 +8662,10 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8684,7 +8684,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>50</v>
@@ -8699,13 +8699,13 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8756,10 +8756,10 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>50</v>
@@ -8771,10 +8771,10 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
@@ -8783,9 +8783,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8799,7 +8799,7 @@
         <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
@@ -8808,13 +8808,13 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>275</v>
+        <v>340</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8865,25 +8865,25 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>345</v>
+        <v>314</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -8892,9 +8892,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8908,7 +8908,7 @@
         <v>50</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -8917,13 +8917,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>131</v>
+        <v>277</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>133</v>
+        <v>345</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8974,25 +8974,25 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>135</v>
+        <v>346</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9007,14 +9007,14 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
@@ -9026,17 +9026,15 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9085,13 +9083,13 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
@@ -9118,7 +9116,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9131,19 +9129,19 @@
         <v>40</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>115</v>
@@ -9196,7 +9194,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>286</v>
+        <v>140</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9214,7 +9212,7 @@
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9223,40 +9221,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
         <v>349</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H72" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H72" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I72" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>350</v>
+        <v>113</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9305,13 +9305,13 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>349</v>
+        <v>288</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>40</v>
@@ -9320,21 +9320,21 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>352</v>
+        <v>93</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>353</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9357,13 +9357,13 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>355</v>
+        <v>131</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9414,36 +9414,36 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM73" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="AF73" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG73" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ73" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AK73" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AL73" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM73" t="s" s="2">
-        <v>359</v>
-      </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9454,10 +9454,10 @@
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -9466,18 +9466,16 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>40</v>
       </c>
@@ -9525,35 +9523,146 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AF74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="s" s="2">
+    </row>
+    <row r="75" hidden="true">
+      <c r="A75" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK74" t="s" s="2">
+      <c r="G75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM74" t="s" s="2">
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM74">
+  <autoFilter ref="A1:AM75">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9563,7 +9672,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI74">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/medication-dh-base-1.xlsx
+++ b/output/SharedMedicinesList/medication-dh-base-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$74</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2610" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="366">
   <si>
     <t>Path</t>
   </si>
@@ -583,7 +583,10 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>Medication.code.coding.extension.value[x]</t>
+    <t>Medication.code.coding.extension.valueCoding</t>
+  </si>
+  <si>
+    <t>valueCoding</t>
   </si>
   <si>
     <t>Value of extension</t>
@@ -592,20 +595,10 @@
     <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
   </si>
   <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
+    <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCoding</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
   </si>
   <si>
     <t>Medication.code.coding.system</t>
@@ -948,6 +941,9 @@
     <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
   </si>
   <si>
+    <t>Medication.ingredient.itemCodeableConcept</t>
+  </si>
+  <si>
     <t>itemCodeableConcept</t>
   </si>
   <si>
@@ -957,13 +953,13 @@
     <t>Coding for a substance or medicinal product  that is an ingredient of the medication.</t>
   </si>
   <si>
-    <t>Medication.ingredient.item[x].id</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].extension</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].coding</t>
+    <t>Medication.ingredient.itemCodeableConcept.id</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.itemCodeableConcept.extension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.itemCodeableConcept.coding</t>
   </si>
   <si>
     <t>amtMP</t>
@@ -975,7 +971,7 @@
     <t>http://hl7.org.au/fhir/ValueSet/amt-mp-codes</t>
   </si>
   <si>
-    <t>Medication.ingredient.item[x].text</t>
+    <t>Medication.ingredient.itemCodeableConcept.text</t>
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
@@ -1316,7 +1312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM75"/>
+  <dimension ref="A1:AM74"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1325,7 +1321,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="43.48828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.6953125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.9296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4143,13 +4139,15 @@
       <c r="A26" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="B26" s="2"/>
+      <c r="B26" t="s" s="2">
+        <v>178</v>
+      </c>
       <c r="C26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>50</v>
@@ -4167,10 +4165,10 @@
         <v>142</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4197,26 +4195,28 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>182</v>
@@ -4248,17 +4248,15 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B27" t="s" s="2">
         <v>183</v>
       </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
@@ -4270,19 +4268,23 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>187</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4306,13 +4308,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4330,7 +4332,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4348,18 +4350,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>40</v>
+        <v>190</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4382,20 +4384,18 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4461,18 +4461,18 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4495,18 +4495,18 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="N29" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4572,18 +4572,18 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4606,17 +4606,17 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4665,7 +4665,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4683,18 +4683,18 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4717,17 +4717,19 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M31" s="2"/>
+        <v>215</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>216</v>
+      </c>
       <c r="N31" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4776,7 +4778,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4794,20 +4796,22 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>213</v>
+        <v>220</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="B32" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B32" t="s" s="2">
+        <v>221</v>
+      </c>
       <c r="C32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4828,19 +4832,19 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>215</v>
+        <v>142</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>217</v>
+        <v>144</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>218</v>
+        <v>145</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>219</v>
+        <v>146</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4865,13 +4869,11 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X32" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X32" s="2"/>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4889,13 +4891,13 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4907,22 +4909,20 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>221</v>
+        <v>149</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>222</v>
+        <v>150</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B33" t="s" s="2">
-        <v>223</v>
-      </c>
+        <v>224</v>
+      </c>
+      <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4943,19 +4943,19 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>144</v>
+        <v>226</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4980,11 +4980,13 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X33" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y33" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -5002,13 +5004,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -5020,18 +5022,18 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>150</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5054,20 +5056,18 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5091,13 +5091,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -5115,7 +5115,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5133,18 +5133,18 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5167,17 +5167,15 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5202,32 +5200,32 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE35" t="s" s="2">
         <v>239</v>
       </c>
-      <c r="Z35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>234</v>
-      </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
@@ -5241,13 +5239,13 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5255,7 +5253,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5278,13 +5276,13 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5335,7 +5333,7 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5350,10 +5348,10 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>128</v>
@@ -5362,9 +5360,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5378,7 +5376,7 @@
         <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -5387,13 +5385,13 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5444,7 +5442,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5459,21 +5457,21 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>40</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5493,18 +5491,20 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>251</v>
+        <v>118</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>258</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5529,13 +5529,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>40</v>
+        <v>260</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5553,7 +5553,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5568,21 +5568,21 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>256</v>
+        <v>263</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5596,7 +5596,7 @@
         <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
@@ -5605,17 +5605,15 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>132</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>260</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5640,13 +5638,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5664,7 +5662,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>257</v>
+        <v>134</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5679,32 +5677,32 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>264</v>
+        <v>135</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5716,15 +5714,17 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M40" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M40" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5761,25 +5761,25 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5802,18 +5802,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5822,21 +5822,23 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5872,11 +5874,9 @@
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB41" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="AB41" s="2"/>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>99</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5902,20 +5902,22 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="B42" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
@@ -5939,7 +5941,7 @@
         <v>142</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>143</v>
+        <v>269</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>144</v>
@@ -5973,26 +5975,26 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>40</v>
+        <v>270</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB42" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>148</v>
@@ -6024,11 +6026,9 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6049,19 +6049,19 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6086,11 +6086,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6108,13 +6110,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -6126,18 +6128,18 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>150</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6148,32 +6150,30 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>131</v>
+        <v>275</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6221,36 +6221,36 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>232</v>
+        <v>280</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6261,10 +6261,10 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
@@ -6273,17 +6273,15 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>277</v>
+        <v>131</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>278</v>
+        <v>132</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>280</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M45" s="2"/>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6332,25 +6330,25 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>276</v>
+        <v>134</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>282</v>
+        <v>135</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6361,18 +6359,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6384,15 +6382,17 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M46" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6441,13 +6441,13 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6470,11 +6470,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6487,19 +6487,19 @@
         <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>115</v>
@@ -6552,7 +6552,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>140</v>
+        <v>286</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6570,7 +6570,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6579,42 +6579,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>288</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>113</v>
+        <v>289</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6663,13 +6661,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6678,23 +6676,25 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>93</v>
+        <v>291</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>40</v>
+        <v>292</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B49" s="2"/>
+        <v>293</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>294</v>
+      </c>
       <c r="C49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -6715,13 +6715,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>290</v>
+        <v>118</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6760,17 +6760,19 @@
         <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AB49" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>50</v>
@@ -6788,28 +6790,26 @@
         <v>126</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>50</v>
@@ -6824,13 +6824,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>296</v>
+        <v>132</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>297</v>
+        <v>133</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6881,10 +6881,10 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>289</v>
+        <v>134</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>50</v>
@@ -6896,16 +6896,16 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>293</v>
+        <v>135</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -6914,14 +6914,14 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -6933,15 +6933,17 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6978,25 +6980,25 @@
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7023,7 +7025,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7039,21 +7041,23 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7089,11 +7093,9 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>139</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="AB52" s="2"/>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7101,7 +7103,7 @@
         <v>99</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7119,20 +7121,22 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>135</v>
+        <v>149</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7141,7 +7145,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7156,7 +7160,7 @@
         <v>142</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>143</v>
+        <v>301</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>144</v>
@@ -7190,26 +7194,26 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X53" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X53" s="2"/>
       <c r="Y53" t="s" s="2">
-        <v>40</v>
+        <v>302</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>148</v>
@@ -7241,11 +7245,9 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7266,19 +7268,19 @@
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>302</v>
+        <v>272</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>144</v>
+        <v>273</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>145</v>
+        <v>227</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7303,11 +7305,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7325,13 +7329,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>148</v>
+        <v>229</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7343,16 +7347,16 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>149</v>
+        <v>230</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>150</v>
+        <v>231</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
         <v>304</v>
       </c>
@@ -7368,28 +7372,26 @@
         <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>131</v>
+        <v>213</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>274</v>
+        <v>305</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M55" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M55" s="2"/>
       <c r="N55" t="s" s="2">
-        <v>230</v>
+        <v>307</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7438,7 +7440,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>231</v>
+        <v>304</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7456,18 +7458,18 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7490,18 +7492,16 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>215</v>
+        <v>309</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="M56" s="2"/>
-      <c r="N56" t="s" s="2">
-        <v>308</v>
-      </c>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7549,7 +7549,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7564,21 +7564,21 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>40</v>
+        <v>312</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>249</v>
+        <v>313</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>40</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7601,13 +7601,13 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7658,7 +7658,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7670,24 +7670,24 @@
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>313</v>
+        <v>242</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>315</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7701,7 +7701,7 @@
         <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
@@ -7710,13 +7710,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>277</v>
+        <v>131</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>317</v>
+        <v>132</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>318</v>
+        <v>133</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7767,7 +7767,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>316</v>
+        <v>134</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7779,13 +7779,13 @@
         <v>40</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>319</v>
+        <v>135</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
@@ -7800,14 +7800,14 @@
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>40</v>
@@ -7819,15 +7819,17 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7876,13 +7878,13 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -7909,7 +7911,7 @@
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
@@ -7922,19 +7924,19 @@
         <v>40</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="M60" t="s" s="2">
         <v>115</v>
@@ -7987,7 +7989,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>140</v>
+        <v>286</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8005,7 +8007,7 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -8020,36 +8022,34 @@
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I61" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>113</v>
+        <v>323</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>324</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8074,13 +8074,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>40</v>
+        <v>325</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>40</v>
+        <v>326</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
@@ -8098,13 +8098,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>288</v>
+        <v>322</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8113,10 +8113,10 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>93</v>
+        <v>127</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8127,7 +8127,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8138,7 +8138,7 @@
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
@@ -8150,13 +8150,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>118</v>
+        <v>275</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8183,49 +8183,49 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
       <c r="Y62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE62" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="Z62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE62" t="s" s="2">
-        <v>323</v>
-      </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>127</v>
+        <v>330</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8236,7 +8236,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8247,7 +8247,7 @@
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8259,13 +8259,13 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>277</v>
+        <v>131</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>329</v>
+        <v>132</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>330</v>
+        <v>133</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8316,25 +8316,25 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>328</v>
+        <v>134</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>331</v>
+        <v>135</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8349,14 +8349,14 @@
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G64" t="s" s="2">
         <v>40</v>
@@ -8368,15 +8368,17 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8425,13 +8427,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8458,7 +8460,7 @@
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8471,19 +8473,19 @@
         <v>40</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J65" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>115</v>
@@ -8536,7 +8538,7 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>140</v>
+        <v>286</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8554,7 +8556,7 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -8569,36 +8571,34 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I66" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>113</v>
+        <v>336</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8647,13 +8647,13 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
@@ -8662,10 +8662,10 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>93</v>
+        <v>291</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8676,7 +8676,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8684,7 +8684,7 @@
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
         <v>50</v>
@@ -8699,13 +8699,13 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8756,10 +8756,10 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>50</v>
@@ -8771,10 +8771,10 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
@@ -8783,9 +8783,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8799,7 +8799,7 @@
         <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
@@ -8808,13 +8808,13 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>340</v>
+        <v>275</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8865,25 +8865,25 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>314</v>
+        <v>345</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -8892,9 +8892,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8908,7 +8908,7 @@
         <v>50</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -8917,13 +8917,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>277</v>
+        <v>131</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>344</v>
+        <v>132</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>345</v>
+        <v>133</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8974,25 +8974,25 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>343</v>
+        <v>134</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>346</v>
+        <v>135</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9007,14 +9007,14 @@
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>40</v>
@@ -9026,15 +9026,17 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M70" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9083,13 +9085,13 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
@@ -9116,7 +9118,7 @@
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>112</v>
+        <v>284</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9129,19 +9131,19 @@
         <v>40</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>115</v>
@@ -9194,7 +9196,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>140</v>
+        <v>286</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9212,7 +9214,7 @@
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9221,42 +9223,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
         <v>349</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>113</v>
+        <v>350</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>351</v>
+      </c>
+      <c r="M72" s="2"/>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9305,13 +9305,13 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>288</v>
+        <v>349</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>40</v>
@@ -9320,21 +9320,21 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>93</v>
+        <v>352</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>40</v>
+        <v>353</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9357,13 +9357,13 @@
         <v>40</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>131</v>
+        <v>355</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>351</v>
+        <v>356</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>352</v>
+        <v>357</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9414,7 +9414,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9429,21 +9429,21 @@
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>354</v>
+        <v>359</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9454,10 +9454,10 @@
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -9466,16 +9466,18 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>356</v>
+        <v>361</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>357</v>
+        <v>362</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>358</v>
+        <v>363</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" s="2"/>
+      <c r="N74" t="s" s="2">
+        <v>364</v>
+      </c>
       <c r="O74" t="s" s="2">
         <v>40</v>
       </c>
@@ -9523,13 +9525,13 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>355</v>
+        <v>360</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>40</v>
@@ -9538,131 +9540,20 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="75" hidden="true">
-      <c r="A75" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="B75" s="2"/>
-      <c r="C75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D75" s="2"/>
-      <c r="E75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J75" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="K75" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="L75" t="s" s="2">
-        <v>364</v>
-      </c>
-      <c r="M75" s="2"/>
-      <c r="N75" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="O75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P75" s="2"/>
-      <c r="Q75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE75" t="s" s="2">
-        <v>361</v>
-      </c>
-      <c r="AF75" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG75" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="AL75" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM75" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM75">
+  <autoFilter ref="A1:AM74">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9672,7 +9563,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI74">
+  <conditionalFormatting sqref="A2:AI73">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/medication-dh-base-1.xlsx
+++ b/output/SharedMedicinesList/medication-dh-base-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$74</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2578" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="370">
   <si>
     <t>Path</t>
   </si>
@@ -583,22 +583,29 @@
     <t>Extension.url</t>
   </si>
   <si>
-    <t>Medication.code.coding.extension.valueCoding</t>
+    <t>Medication.code.coding.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>valueCoding</t>
   </si>
   <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
     <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
   </si>
   <si>
     <t>Medication.code.coding.system</t>
@@ -941,9 +948,6 @@
     <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
   </si>
   <si>
-    <t>Medication.ingredient.itemCodeableConcept</t>
-  </si>
-  <si>
     <t>itemCodeableConcept</t>
   </si>
   <si>
@@ -953,13 +957,13 @@
     <t>Coding for a substance or medicinal product  that is an ingredient of the medication.</t>
   </si>
   <si>
-    <t>Medication.ingredient.itemCodeableConcept.id</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.itemCodeableConcept.extension</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.itemCodeableConcept.coding</t>
+    <t>Medication.ingredient.item[x].id</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].extension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].coding</t>
   </si>
   <si>
     <t>amtMP</t>
@@ -971,7 +975,17 @@
     <t>http://hl7.org.au/fhir/ValueSet/amt-mp-codes</t>
   </si>
   <si>
-    <t>Medication.ingredient.itemCodeableConcept.text</t>
+    <t>Medication.ingredient.item[x].text</t>
+  </si>
+  <si>
+    <t>itemReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/StructureDefinition/au-medication|http://hl7.org.au/fhir/StructureDefinition/au-substance)
+</t>
+  </si>
+  <si>
+    <t>Item Reference</t>
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
@@ -1312,7 +1326,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM74"/>
+  <dimension ref="A1:AM76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1321,7 +1335,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.6953125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="43.48828125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="20.9296875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
@@ -4139,15 +4153,13 @@
       <c r="A26" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="B26" t="s" s="2">
-        <v>178</v>
-      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>50</v>
@@ -4165,10 +4177,10 @@
         <v>142</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>179</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>180</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4195,28 +4207,26 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="AB26" s="2"/>
+      <c r="AC26" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD26" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
         <v>182</v>
@@ -4248,15 +4258,17 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
         <v>50</v>
@@ -4268,23 +4280,19 @@
         <v>40</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>185</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>187</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4308,13 +4316,13 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
@@ -4332,7 +4340,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4350,18 +4358,18 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>189</v>
+        <v>93</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>190</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4384,18 +4392,20 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N28" s="2"/>
+        <v>188</v>
+      </c>
+      <c r="N28" t="s" s="2">
+        <v>189</v>
+      </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
@@ -4443,7 +4453,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4461,18 +4471,18 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4495,18 +4505,18 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>200</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" t="s" s="2">
-        <v>201</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
       </c>
@@ -4554,7 +4564,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4572,18 +4582,18 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4606,17 +4616,17 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4665,7 +4675,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4683,18 +4693,18 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4717,19 +4727,17 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>216</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4778,7 +4786,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4796,22 +4804,20 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B32" t="s" s="2">
-        <v>221</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
         <v>40</v>
       </c>
@@ -4832,19 +4838,19 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>144</v>
+        <v>217</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>145</v>
+        <v>218</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>146</v>
+        <v>219</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4869,11 +4875,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X32" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X32" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y32" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4891,13 +4899,13 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH32" t="s" s="2">
         <v>40</v>
@@ -4909,20 +4917,22 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>149</v>
+        <v>221</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>150</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>223</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4943,19 +4953,19 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>226</v>
+        <v>144</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4980,13 +4990,11 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X33" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -5004,13 +5012,13 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH33" t="s" s="2">
         <v>40</v>
@@ -5022,18 +5030,18 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5056,18 +5064,20 @@
         <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N34" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5091,13 +5101,13 @@
         <v>40</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>236</v>
+        <v>40</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>237</v>
+        <v>40</v>
       </c>
       <c r="Z34" t="s" s="2">
         <v>40</v>
@@ -5115,36 +5125,36 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG34" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK34" t="s" s="2">
         <v>232</v>
       </c>
-      <c r="AF34" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG34" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ34" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK34" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5167,15 +5177,17 @@
         <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>213</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5200,13 +5212,13 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
@@ -5224,7 +5236,7 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5239,13 +5251,13 @@
         <v>40</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>40</v>
@@ -5253,7 +5265,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5276,13 +5288,13 @@
         <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5333,25 +5345,25 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AF36" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG36" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ36" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AK36" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="AL36" t="s" s="2">
         <v>128</v>
@@ -5360,9 +5372,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5376,7 +5388,7 @@
         <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
@@ -5385,13 +5397,13 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>249</v>
+        <v>215</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5442,7 +5454,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5457,21 +5469,21 @@
         <v>40</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>253</v>
+        <v>128</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>254</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5491,20 +5503,18 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>118</v>
+        <v>251</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>258</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5529,13 +5539,13 @@
         <v>40</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5553,36 +5563,36 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
+        <v>250</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG38" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="AL38" t="s" s="2">
         <v>255</v>
       </c>
-      <c r="AF38" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG38" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI38" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ38" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="AK38" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="AM38" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5596,7 +5606,7 @@
         <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
@@ -5605,15 +5615,17 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>132</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M39" s="2"/>
+        <v>259</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>260</v>
+      </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5638,13 +5650,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5662,7 +5674,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>134</v>
+        <v>257</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5677,32 +5689,32 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>135</v>
+        <v>264</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G40" t="s" s="2">
         <v>40</v>
@@ -5714,17 +5726,15 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>40</v>
@@ -5761,25 +5771,25 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH40" t="s" s="2">
         <v>40</v>
@@ -5802,18 +5812,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5822,23 +5832,21 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5874,9 +5882,11 @@
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AB41" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5884,7 +5894,7 @@
         <v>99</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5902,22 +5912,20 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="B42" t="s" s="2">
         <v>268</v>
       </c>
+      <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
@@ -5941,7 +5949,7 @@
         <v>142</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>269</v>
+        <v>143</v>
       </c>
       <c r="L42" t="s" s="2">
         <v>144</v>
@@ -5975,26 +5983,26 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X42" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y42" t="s" s="2">
-        <v>270</v>
+        <v>40</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE42" t="s" s="2">
         <v>148</v>
@@ -6026,9 +6034,11 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6049,19 +6059,19 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6086,13 +6096,11 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6110,13 +6118,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -6128,18 +6136,18 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6150,30 +6158,32 @@
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H44" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I44" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J44" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="L44" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="L44" t="s" s="2">
-        <v>277</v>
-      </c>
       <c r="M44" t="s" s="2">
-        <v>278</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>229</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6221,36 +6231,36 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6261,10 +6271,10 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
@@ -6273,15 +6283,17 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>131</v>
+        <v>277</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>132</v>
+        <v>278</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>279</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>280</v>
+      </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
@@ -6330,25 +6342,25 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>134</v>
+        <v>276</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
@@ -6359,18 +6371,18 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F46" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>40</v>
@@ -6382,17 +6394,15 @@
         <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M46" s="2"/>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
@@ -6441,13 +6451,13 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH46" t="s" s="2">
         <v>40</v>
@@ -6470,11 +6480,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>284</v>
+        <v>112</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6487,19 +6497,19 @@
         <v>40</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>285</v>
+        <v>138</v>
       </c>
       <c r="M47" t="s" s="2">
         <v>115</v>
@@ -6552,7 +6562,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>286</v>
+        <v>140</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6570,7 +6580,7 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
@@ -6579,40 +6589,42 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H48" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H48" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>288</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>289</v>
+        <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6661,13 +6673,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6676,25 +6688,23 @@
         <v>40</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>291</v>
+        <v>93</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>292</v>
+        <v>40</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6706,7 +6716,7 @@
         <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -6715,13 +6725,13 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>118</v>
+        <v>290</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
@@ -6760,19 +6770,17 @@
         <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>50</v>
@@ -6790,20 +6798,22 @@
         <v>126</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
@@ -6824,13 +6834,13 @@
         <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>132</v>
+        <v>296</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>133</v>
+        <v>297</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -6881,10 +6891,10 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>134</v>
+        <v>289</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>50</v>
@@ -6896,16 +6906,16 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>135</v>
+        <v>293</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" hidden="true">
@@ -6914,14 +6924,14 @@
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
         <v>40</v>
@@ -6933,17 +6943,15 @@
         <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6980,25 +6988,25 @@
         <v>40</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG51" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH51" t="s" s="2">
         <v>40</v>
@@ -7025,7 +7033,7 @@
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
@@ -7041,23 +7049,21 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7093,9 +7099,11 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AB52" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>139</v>
+      </c>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7103,7 +7111,7 @@
         <v>99</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7121,22 +7129,20 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="B53" t="s" s="2">
         <v>300</v>
       </c>
+      <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7145,7 +7151,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7160,7 +7166,7 @@
         <v>142</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>301</v>
+        <v>143</v>
       </c>
       <c r="L53" t="s" s="2">
         <v>144</v>
@@ -7194,26 +7200,26 @@
         <v>40</v>
       </c>
       <c r="W53" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X53" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y53" t="s" s="2">
-        <v>302</v>
+        <v>40</v>
       </c>
       <c r="Z53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE53" t="s" s="2">
         <v>148</v>
@@ -7245,9 +7251,11 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7268,19 +7276,19 @@
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>131</v>
+        <v>142</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>272</v>
+        <v>302</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>273</v>
+        <v>144</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>227</v>
+        <v>145</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>228</v>
+        <v>146</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7305,13 +7313,11 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7329,13 +7335,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>229</v>
+        <v>148</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7347,16 +7353,16 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>230</v>
+        <v>149</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>231</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
         <v>304</v>
       </c>
@@ -7372,26 +7378,28 @@
         <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I55" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I55" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J55" t="s" s="2">
-        <v>213</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>305</v>
+        <v>274</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>306</v>
-      </c>
-      <c r="M55" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N55" t="s" s="2">
-        <v>307</v>
+        <v>230</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7440,7 +7448,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>304</v>
+        <v>231</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7458,20 +7466,22 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>247</v>
+        <v>232</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>308</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="C56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7483,7 +7493,7 @@
         <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
@@ -7492,13 +7502,13 @@
         <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7549,10 +7559,10 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>50</v>
@@ -7564,21 +7574,21 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>312</v>
+        <v>126</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>313</v>
+        <v>293</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>314</v>
+        <v>294</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7601,16 +7611,18 @@
         <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>275</v>
+        <v>215</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7658,7 +7670,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7670,13 +7682,13 @@
         <v>40</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>318</v>
+        <v>249</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>40</v>
@@ -7685,9 +7697,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7701,7 +7713,7 @@
         <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
@@ -7710,13 +7722,13 @@
         <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>131</v>
+        <v>313</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>132</v>
+        <v>314</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>133</v>
+        <v>315</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7767,7 +7779,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>134</v>
+        <v>312</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7782,35 +7794,35 @@
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>40</v>
+        <v>316</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>40</v>
+        <v>318</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H59" t="s" s="2">
         <v>40</v>
@@ -7819,17 +7831,15 @@
         <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>95</v>
+        <v>277</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>137</v>
+        <v>320</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M59" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>321</v>
+      </c>
+      <c r="M59" s="2"/>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7878,25 +7888,25 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>140</v>
+        <v>319</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>135</v>
+        <v>322</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7907,40 +7917,38 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F60" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -7989,13 +7997,13 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG60" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH60" t="s" s="2">
         <v>40</v>
@@ -8007,7 +8015,7 @@
         <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
@@ -8018,18 +8026,18 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>40</v>
@@ -8041,15 +8049,17 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>323</v>
+        <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M61" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8074,13 +8084,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>325</v>
+        <v>40</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>326</v>
+        <v>40</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
@@ -8098,13 +8108,13 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>322</v>
+        <v>140</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
@@ -8113,10 +8123,10 @@
         <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8127,11 +8137,11 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
@@ -8144,21 +8154,23 @@
         <v>40</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>275</v>
+        <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>328</v>
+        <v>113</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8207,7 +8219,7 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8219,13 +8231,13 @@
         <v>40</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>330</v>
+        <v>93</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8236,7 +8248,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8259,13 +8271,13 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>132</v>
+        <v>327</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>133</v>
+        <v>328</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8292,13 +8304,13 @@
         <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>40</v>
+        <v>329</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>40</v>
@@ -8316,7 +8328,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>134</v>
+        <v>326</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8331,10 +8343,10 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8345,11 +8357,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8368,17 +8380,15 @@
         <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>95</v>
+        <v>277</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>137</v>
+        <v>332</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8427,7 +8437,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>140</v>
+        <v>331</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8439,13 +8449,13 @@
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>135</v>
+        <v>334</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8456,40 +8466,38 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I65" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M65" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M65" s="2"/>
       <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
         <v>40</v>
@@ -8538,13 +8546,13 @@
         <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>40</v>
@@ -8556,7 +8564,7 @@
         <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
@@ -8567,18 +8575,18 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8590,15 +8598,17 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>335</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>336</v>
+        <v>137</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8647,13 +8657,13 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>334</v>
+        <v>140</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
@@ -8662,10 +8672,10 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>291</v>
+        <v>135</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
@@ -8676,38 +8686,40 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>339</v>
+        <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>340</v>
+        <v>113</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -8756,36 +8768,36 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" hidden="true">
+      <c r="A68" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AF67" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG67" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ67" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="AK67" t="s" s="2">
-        <v>313</v>
-      </c>
-      <c r="AL67" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM67" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8793,13 +8805,13 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
@@ -8808,13 +8820,13 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>275</v>
+        <v>339</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8865,25 +8877,25 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI68" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -8894,7 +8906,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8917,13 +8929,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>131</v>
+        <v>343</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>132</v>
+        <v>344</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>133</v>
+        <v>345</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8974,7 +8986,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>134</v>
+        <v>342</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -8989,10 +9001,10 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>135</v>
+        <v>317</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
@@ -9001,23 +9013,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -9026,17 +9038,15 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>95</v>
+        <v>277</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>137</v>
+        <v>347</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>40</v>
@@ -9085,7 +9095,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>140</v>
+        <v>346</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9097,13 +9107,13 @@
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>135</v>
+        <v>349</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9114,40 +9124,38 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>284</v>
+        <v>40</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F71" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G71" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>95</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M71" s="2"/>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>40</v>
@@ -9196,13 +9204,13 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG71" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH71" t="s" s="2">
         <v>40</v>
@@ -9214,7 +9222,7 @@
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9223,23 +9231,23 @@
         <v>40</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>40</v>
@@ -9248,15 +9256,17 @@
         <v>40</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>350</v>
+        <v>137</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M72" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
         <v>40</v>
@@ -9305,13 +9315,13 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>349</v>
+        <v>140</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>40</v>
@@ -9320,52 +9330,54 @@
         <v>40</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
+        <v>135</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" hidden="true">
+      <c r="A73" t="s" s="2">
         <v>352</v>
-      </c>
-      <c r="AL72" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM72" t="s" s="2">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="s" s="2">
-        <v>354</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F73" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G73" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H73" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H73" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I73" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>355</v>
+        <v>95</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>356</v>
+        <v>113</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="M73" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N73" s="2"/>
       <c r="O73" t="s" s="2">
         <v>40</v>
@@ -9414,13 +9426,13 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>354</v>
+        <v>288</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>40</v>
@@ -9429,21 +9441,21 @@
         <v>40</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>358</v>
+        <v>93</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>359</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9454,10 +9466,10 @@
         <v>41</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -9466,18 +9478,16 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>361</v>
+        <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="M74" s="2"/>
-      <c r="N74" t="s" s="2">
-        <v>364</v>
-      </c>
+      <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>40</v>
       </c>
@@ -9525,35 +9535,255 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="B75" s="2"/>
+      <c r="C75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AF74" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG74" t="s" s="2">
+      <c r="L75" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
+      <c r="O75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P75" s="2"/>
+      <c r="Q75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="76" hidden="true">
+      <c r="A76" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D76" s="2"/>
+      <c r="E76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F76" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK74" t="s" s="2">
+      <c r="G76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J76" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="AL74" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM74" t="s" s="2">
+      <c r="K76" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P76" s="2"/>
+      <c r="Q76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM74">
+  <autoFilter ref="A1:AM76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9563,7 +9793,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI73">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/medication-dh-base-1.xlsx
+++ b/output/SharedMedicinesList/medication-dh-base-1.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="371">
   <si>
     <t>Path</t>
   </si>
@@ -153,7 +153,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}</t>
+dom-1:If the resource is contained in another resource, it SHALL NOT contain any narrative {contained.text.empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource {contained.where(('#'+id in %resource.descendants().reference).not()).empty()}inv-dh-med-01:If present, a manufacturer shall at least have a reference, an identifier or a display {manufacturer.exists() implies manufacturer.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}</t>
   </si>
   <si>
     <t>NewRx/MedicationPrescribed@@ -903,133 +903,137 @@
     <t>The ingredients need not be a complete list.  If an ingredient is not specified, this does not indicate whether an ingredient is present or absent.  If an ingredient is specified it does not mean that all ingredients are specified.  It is possible to specify both inactive and active ingredients.</t>
   </si>
   <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
+inv-dh-med-02:If present, an item reference shall at least have a reference, an identifier or a display {itemReference.exists() implies itemReference.all($this.reference.exists() or $this.identifier.exists() or $this.display.exists())}</t>
+  </si>
+  <si>
+    <t>.scopesRole[typeCode=INGR]</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.id</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.extension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Reference(Substance|Medication)</t>
+  </si>
+  <si>
+    <t>Medication ingredient</t>
+  </si>
+  <si>
+    <t>The actual ingredient - either a substance (simple ingredient) or another medication.</t>
+  </si>
+  <si>
+    <t>.player</t>
+  </si>
+  <si>
+    <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
+  </si>
+  <si>
+    <t>itemCodeableConcept</t>
+  </si>
+  <si>
+    <t>Coded Ingredient Product</t>
+  </si>
+  <si>
+    <t>Coding for a substance or medicinal product  that is an ingredient of the medication.</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].id</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].extension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].coding</t>
+  </si>
+  <si>
+    <t>amtMP</t>
+  </si>
+  <si>
+    <t>AMT Medicinal Product Ingredient</t>
+  </si>
+  <si>
+    <t>http://hl7.org.au/fhir/ValueSet/amt-mp-codes</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].text</t>
+  </si>
+  <si>
+    <t>itemReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/substance-dh-base-1|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medication-dh-base-1)
+</t>
+  </si>
+  <si>
+    <t>Item Reference</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.isActive</t>
+  </si>
+  <si>
+    <t>Active ingredient indicator</t>
+  </si>
+  <si>
+    <t>Indication of whether this ingredient affects the therapeutic action of the drug.</t>
+  </si>
+  <si>
+    <t>True indicates that the ingredient affects the therapeutic action of the drug (i.e. active). +False indicates that the ingredient does not affect the therapeutic action of the drug (i.e. inactive).</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ratio
+</t>
+  </si>
+  <si>
+    <t>Strength of ingredient</t>
+  </si>
+  <si>
+    <t>Specifies how many (or how much) of the items there are in this Medication.  For example, 250 mg per tablet.  This is expressed as a ratio where the numerator is 250mg and the denominator is 1 tablet.</t>
+  </si>
+  <si>
+    <t>//element(*,DrugCodedType)/Strength</t>
+  </si>
+  <si>
+    <t>.quantity</t>
+  </si>
+  <si>
+    <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
+  </si>
+  <si>
+    <t>Medication.package</t>
+  </si>
+  <si>
+    <t>Details about packaged medications</t>
+  </si>
+  <si>
+    <t>Information that only applies to packages (not products). Includes R4 pre-adopts for batch cardinality.</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() | (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>.scopesRole[typeCode=INGR]</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.id</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.extension</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-Reference(Substance|http://ns.electronichealth.net.au/ci/fhir/3.0/StructureDefinition/medication-dh-base-1)</t>
-  </si>
-  <si>
-    <t>Medication ingredient</t>
-  </si>
-  <si>
-    <t>The actual ingredient - either a substance (simple ingredient) or another medication.</t>
-  </si>
-  <si>
-    <t>.player</t>
-  </si>
-  <si>
-    <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
-  </si>
-  <si>
-    <t>itemCodeableConcept</t>
-  </si>
-  <si>
-    <t>Coded Ingredient Product</t>
-  </si>
-  <si>
-    <t>Coding for a substance or medicinal product  that is an ingredient of the medication.</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].id</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].extension</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].coding</t>
-  </si>
-  <si>
-    <t>amtMP</t>
-  </si>
-  <si>
-    <t>AMT Medicinal Product Ingredient</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/ValueSet/amt-mp-codes</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].text</t>
-  </si>
-  <si>
-    <t>itemReference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.org.au/fhir/StructureDefinition/au-medication|http://hl7.org.au/fhir/StructureDefinition/au-substance)
-</t>
-  </si>
-  <si>
-    <t>Item Reference</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.isActive</t>
-  </si>
-  <si>
-    <t>Active ingredient indicator</t>
-  </si>
-  <si>
-    <t>Indication of whether this ingredient affects the therapeutic action of the drug.</t>
-  </si>
-  <si>
-    <t>True indicates that the ingredient affects the therapeutic action of the drug (i.e. active). -False indicates that the ingredient does not affect the therapeutic action of the drug (i.e. inactive).</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.amount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ratio
-</t>
-  </si>
-  <si>
-    <t>Strength of ingredient</t>
-  </si>
-  <si>
-    <t>Specifies how many (or how much) of the items there are in this Medication.  For example, 250 mg per tablet.  This is expressed as a ratio where the numerator is 250mg and the denominator is 1 tablet.</t>
-  </si>
-  <si>
-    <t>//element(*,DrugCodedType)/Strength</t>
-  </si>
-  <si>
-    <t>.quantity</t>
-  </si>
-  <si>
-    <t>RXC-3-Component Amount &amp; RXC-4-Component Units  if medication: RXO-2-Requested Give Amount - Minimum &amp; RXO-4-Requested Give Units / RXO-3-Requested Give Amount - Maximum &amp; RXO-4-Requested Give Units / RXO-11-Requested Dispense Amount &amp; RXO-12-Requested Dispense Units / RXE-3-Give Amount - Minimum &amp; RXE-5-Give Units / RXE-4-Give Amount - Maximum &amp; RXE-5-Give Units / RXE-10-Dispense Amount &amp; RXE-10-Dispense Units</t>
-  </si>
-  <si>
-    <t>Medication.package</t>
-  </si>
-  <si>
-    <t>Details about packaged medications</t>
-  </si>
-  <si>
-    <t>Information that only applies to packages (not products). Includes R4 pre-adopts for batch cardinality.</t>
   </si>
   <si>
     <t>.player[classCode=CONT]</t>
@@ -5152,7 +5156,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>234</v>
       </c>
@@ -5168,7 +5172,7 @@
         <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
@@ -7900,13 +7904,13 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="AJ59" t="s" s="2">
         <v>244</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AL59" t="s" s="2">
         <v>40</v>
@@ -7917,7 +7921,7 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8026,7 +8030,7 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8137,7 +8141,7 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8248,7 +8252,7 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8274,10 +8278,10 @@
         <v>118</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8307,10 +8311,10 @@
         <v>122</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>40</v>
@@ -8328,7 +8332,7 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8357,7 +8361,7 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8383,10 +8387,10 @@
         <v>277</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8437,7 +8441,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8449,13 +8453,13 @@
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="AJ64" t="s" s="2">
         <v>244</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8466,7 +8470,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8575,7 +8579,7 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8686,7 +8690,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8797,7 +8801,7 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8820,13 +8824,13 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8877,7 +8881,7 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>50</v>
@@ -8906,7 +8910,7 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8929,13 +8933,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8986,7 +8990,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9015,7 +9019,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9041,10 +9045,10 @@
         <v>277</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9095,7 +9099,7 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
@@ -9107,13 +9111,13 @@
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>281</v>
+        <v>322</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>244</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9124,7 +9128,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9233,7 +9237,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9344,7 +9348,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9455,7 +9459,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9481,10 +9485,10 @@
         <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9535,7 +9539,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9553,18 +9557,18 @@
         <v>244</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9587,13 +9591,13 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9644,7 +9648,7 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9662,18 +9666,18 @@
         <v>244</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9696,17 +9700,17 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="O76" t="s" s="2">
         <v>40</v>
@@ -9755,7 +9759,7 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
@@ -9773,7 +9777,7 @@
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>

--- a/output/SharedMedicinesList/medication-dh-base-1.xlsx
+++ b/output/SharedMedicinesList/medication-dh-base-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$76</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$87</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="371">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="358">
   <si>
     <t>Path</t>
   </si>
@@ -418,10 +418,6 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
-    <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
-inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
-  </si>
-  <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode  coding.system = //element(*,MedicationType)/DrugCoded/ProductCodeQualifier@@ -491,8 +487,8 @@
     <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
   </si>
   <si>
-    <t>value:system}
-value:code}</t>
+    <t xml:space="preserve">value:system}
+</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -513,12 +509,136 @@
     <t>PBS code from http://pbs.gov.au/code/item. Use of PBS as a code to refer to a type of medication, this excludes implication of context based on the PBS code. Where context is to be implied or stated PBS code needs to be associated with recording a prescription (MedicationRequest) or dispense record(MedicationDispense)</t>
   </si>
   <si>
-    <t>required</t>
+    <t>preferred</t>
   </si>
   <si>
     <t>http://hl7.org.au/fhir/ValueSet/pbs-item</t>
   </si>
   <si>
+    <t>Medication.code.coding.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.system</t>
+  </si>
+  <si>
+    <t>Identity of the terminology system</t>
+  </si>
+  <si>
+    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
+  </si>
+  <si>
+    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
+  </si>
+  <si>
+    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
+  </si>
+  <si>
+    <t>http://pbs.gov.au/code/item</t>
+  </si>
+  <si>
+    <t>Coding.system</t>
+  </si>
+  <si>
+    <t>./codeSystem</t>
+  </si>
+  <si>
+    <t>C*E.3</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.version</t>
+  </si>
+  <si>
+    <t>Version of the system - if relevant</t>
+  </si>
+  <si>
+    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
+  </si>
+  <si>
+    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
+  </si>
+  <si>
+    <t>Coding.version</t>
+  </si>
+  <si>
+    <t>./codeSystemVersion</t>
+  </si>
+  <si>
+    <t>C*E.7</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.code</t>
+  </si>
+  <si>
+    <t>Symbol in syntax defined by the system</t>
+  </si>
+  <si>
+    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
+  </si>
+  <si>
+    <t>Need to refer to a particular code in the system.</t>
+  </si>
+  <si>
+    <t>Coding.code</t>
+  </si>
+  <si>
+    <t>./code</t>
+  </si>
+  <si>
+    <t>C*E.1</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.display</t>
+  </si>
+  <si>
+    <t>Representation defined by the system</t>
+  </si>
+  <si>
+    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
+  </si>
+  <si>
+    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
+  </si>
+  <si>
+    <t>Coding.display</t>
+  </si>
+  <si>
+    <t>CV.displayName</t>
+  </si>
+  <si>
+    <t>C*E.2 - but note this is not well followed</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.userSelected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boolean
+</t>
+  </si>
+  <si>
+    <t>If this coding was chosen directly by the user</t>
+  </si>
+  <si>
+    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
+  </si>
+  <si>
+    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
+  </si>
+  <si>
+    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
+  </si>
+  <si>
+    <t>Coding.userSelected</t>
+  </si>
+  <si>
+    <t>CD.codingRationale</t>
+  </si>
+  <si>
+    <t>Sometimes implied by being first</t>
+  </si>
+  <si>
     <t>gtin</t>
   </si>
   <si>
@@ -531,6 +651,9 @@
     <t>http://hl7.org.au/fhir/ValueSet/gtin</t>
   </si>
   <si>
+    <t>http://www.gs1.org/gtin</t>
+  </si>
+  <si>
     <t>amt</t>
   </si>
   <si>
@@ -538,12 +661,6 @@
   </si>
   <si>
     <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-medication-1</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.id</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.extension</t>
   </si>
   <si>
     <t>medicationClass</t>
@@ -605,122 +722,13 @@
     <t>valueCoding</t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
     <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
   </si>
   <si>
-    <t>Medication.code.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should de-reference to some definition that establish the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>C*E.3</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured. and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>C*E.7</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>C*E.1</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>C*E.2 - but note this is not well followed</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - i.e. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>Sometimes implied by being first</t>
+    <t>http://snomed.info/sct</t>
   </si>
   <si>
     <t>mimsPackage</t>
@@ -730,6 +738,9 @@
   </si>
   <si>
     <t>http://hl7.org.au/fhir/ValueSet/mims</t>
+  </si>
+  <si>
+    <t>http://www.mims.com.au/codes</t>
   </si>
   <si>
     <t>Medication.code.text</t>
@@ -839,10 +850,7 @@
     <t>When Medication is referenced from MedicationRequest, this is the ordered form.  When Medication is referenced within MedicationDispense, this is the dispensed form.  When Medication is referenced within MedicationAdministration, this is administered form.</t>
   </si>
   <si>
-    <t>A coded concept defining the form of a medication</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/medication-form-1</t>
   </si>
   <si>
     <t>coding.code =  //element(*,DrugCodedType)/FormCode@@ -856,37 +864,6 @@
     <t>RXO-5-Requested Dosage Form / RXE-6-Give Dosage Form / RXD-6-Actual Dosage Form / RXG-8-Give Dosage Form / RXA-8-Administered Dosage Form</t>
   </si>
   <si>
-    <t>Medication.form.id</t>
-  </si>
-  <si>
-    <t>Medication.form.extension</t>
-  </si>
-  <si>
-    <t>Medication.form.coding</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>snomedForm</t>
-  </si>
-  <si>
-    <t>Medication Form (SNOMED CT)</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/medication-form-1</t>
-  </si>
-  <si>
-    <t>Medication.form.text</t>
-  </si>
-  <si>
-    <t>Plain text representation of the concept</t>
-  </si>
-  <si>
-    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
-  </si>
-  <si>
     <t>Medication.ingredient</t>
   </si>
   <si>
@@ -957,25 +934,7 @@
     <t>Coding for a substance or medicinal product  that is an ingredient of the medication.</t>
   </si>
   <si>
-    <t>Medication.ingredient.item[x].id</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].extension</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].coding</t>
-  </si>
-  <si>
-    <t>amtMP</t>
-  </si>
-  <si>
-    <t>AMT Medicinal Product Ingredient</t>
-  </si>
-  <si>
     <t>http://hl7.org.au/fhir/ValueSet/amt-mp-codes</t>
-  </si>
-  <si>
-    <t>Medication.ingredient.item[x].text</t>
   </si>
   <si>
     <t>itemReference</t>
@@ -1330,7 +1289,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM76"/>
+  <dimension ref="A1:AM87"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2808,24 +2767,24 @@
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="AJ13" t="s" s="2">
+      <c r="AK13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>129</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2848,13 +2807,13 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L14" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2905,25 +2864,25 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF14" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK14" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2934,7 +2893,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2960,10 +2919,10 @@
         <v>95</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>115</v>
@@ -3007,7 +2966,7 @@
         <v>98</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>40</v>
@@ -3016,7 +2975,7 @@
         <v>99</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3034,7 +2993,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3045,7 +3004,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3068,19 +3027,19 @@
         <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="K16" t="s" s="2">
         <v>142</v>
       </c>
-      <c r="K16" t="s" s="2">
+      <c r="L16" t="s" s="2">
         <v>143</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="M16" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3117,7 +3076,7 @@
         <v>40</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
@@ -3127,7 +3086,7 @@
         <v>99</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3145,21 +3104,21 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>150</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>40</v>
@@ -3181,19 +3140,19 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>153</v>
-      </c>
       <c r="M17" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3218,11 +3177,11 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
@@ -3240,7 +3199,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3258,22 +3217,20 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>150</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3282,7 +3239,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -3291,23 +3248,19 @@
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>158</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3331,11 +3284,13 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X18" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y18" t="s" s="2">
-        <v>159</v>
+        <v>40</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -3353,13 +3308,13 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -3371,24 +3326,22 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>160</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3404,23 +3357,21 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3444,29 +3395,31 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X19" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y19" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3484,18 +3437,18 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>149</v>
+        <v>134</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3503,7 +3456,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
@@ -3515,25 +3468,29 @@
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>131</v>
+        <v>63</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>132</v>
+        <v>158</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>40</v>
@@ -3575,7 +3532,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3593,18 +3550,18 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3615,7 +3572,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3624,18 +3581,20 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M21" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3672,25 +3631,25 @@
         <v>40</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3702,22 +3661,20 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>40</v>
+        <v>171</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="B22" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3735,19 +3692,21 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>166</v>
+        <v>69</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
+      <c r="N22" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3795,13 +3754,13 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3813,18 +3772,18 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>40</v>
+        <v>178</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3844,19 +3803,21 @@
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>132</v>
+        <v>181</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
+      <c r="N23" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3904,7 +3865,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>134</v>
+        <v>184</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3922,29 +3883,29 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -3953,21 +3914,23 @@
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>137</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>138</v>
+        <v>190</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -4003,25 +3966,25 @@
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>140</v>
+        <v>193</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -4033,29 +3996,31 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="B25" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>196</v>
+      </c>
       <c r="C25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -4064,27 +4029,29 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>172</v>
+        <v>197</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="N25" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N25" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>175</v>
+        <v>40</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>40</v>
@@ -4102,13 +4069,11 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X25" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X25" s="2"/>
       <c r="Y25" t="s" s="2">
-        <v>40</v>
+        <v>199</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4126,13 +4091,13 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -4144,18 +4109,18 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>93</v>
+        <v>148</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4178,13 +4143,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>179</v>
+        <v>132</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4223,17 +4188,19 @@
         <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AB26" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4251,7 +4218,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4262,20 +4229,18 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>177</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>156</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4287,15 +4252,17 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>142</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>178</v>
+        <v>136</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M27" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M27" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4320,37 +4287,37 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>167</v>
+        <v>40</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>182</v>
+        <v>139</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4362,7 +4329,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4373,7 +4340,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4381,7 +4348,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>50</v>
@@ -4399,23 +4366,23 @@
         <v>63</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>186</v>
+        <v>158</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>187</v>
+        <v>159</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>188</v>
+        <v>160</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>189</v>
+        <v>161</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>40</v>
+        <v>200</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>40</v>
@@ -4457,7 +4424,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4475,18 +4442,18 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>192</v>
+        <v>165</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4509,16 +4476,16 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4568,7 +4535,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4586,18 +4553,18 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>198</v>
+        <v>171</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>199</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>200</v>
+        <v>173</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4623,14 +4590,14 @@
         <v>69</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>201</v>
+        <v>174</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>202</v>
+        <v>175</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>203</v>
+        <v>176</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4679,7 +4646,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>204</v>
+        <v>177</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4697,18 +4664,18 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>206</v>
+        <v>179</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4731,17 +4698,17 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>210</v>
+        <v>183</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4790,7 +4757,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4808,18 +4775,18 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>212</v>
+        <v>185</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>213</v>
+        <v>186</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>214</v>
+        <v>187</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4842,19 +4809,19 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>217</v>
+        <v>190</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>218</v>
+        <v>191</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>219</v>
+        <v>192</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4903,7 +4870,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>220</v>
+        <v>193</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4921,21 +4888,21 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>222</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>223</v>
+        <v>201</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>40</v>
@@ -4945,7 +4912,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -4957,19 +4924,19 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>224</v>
+        <v>202</v>
       </c>
       <c r="L33" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="M33" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="M33" t="s" s="2">
+      <c r="N33" t="s" s="2">
         <v>145</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4994,11 +4961,11 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>225</v>
+        <v>203</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -5016,7 +4983,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5034,18 +5001,18 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>149</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>150</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>226</v>
+        <v>155</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5065,23 +5032,19 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J34" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K34" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>227</v>
-      </c>
       <c r="L34" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5129,7 +5092,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>231</v>
+        <v>133</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5147,18 +5110,18 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>233</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>156</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5169,29 +5132,27 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>237</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5216,37 +5177,37 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>238</v>
+        <v>40</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5258,7 +5219,7 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5269,9 +5230,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>241</v>
-      </c>
-      <c r="B36" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="B36" t="s" s="2">
+        <v>204</v>
+      </c>
       <c r="C36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5289,16 +5252,16 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>242</v>
+        <v>206</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>243</v>
+        <v>207</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5349,13 +5312,13 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>241</v>
+        <v>139</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5364,13 +5327,13 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>245</v>
+        <v>40</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5378,7 +5341,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5398,16 +5361,16 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>215</v>
+        <v>130</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>247</v>
+        <v>131</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>248</v>
+        <v>132</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5458,7 +5421,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>246</v>
+        <v>133</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5476,49 +5439,51 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>250</v>
+        <v>209</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>251</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>252</v>
+        <v>136</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>253</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5555,25 +5520,25 @@
         <v>40</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5582,21 +5547,21 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>254</v>
+        <v>134</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>255</v>
+        <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>256</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>257</v>
+        <v>210</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5604,13 +5569,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
@@ -5619,16 +5584,16 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>258</v>
+        <v>211</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>259</v>
+        <v>212</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>260</v>
+        <v>213</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5636,7 +5601,7 @@
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>40</v>
+        <v>214</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>40</v>
@@ -5654,13 +5619,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>261</v>
+        <v>40</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>262</v>
+        <v>40</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5678,10 +5643,10 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>257</v>
+        <v>215</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>50</v>
@@ -5693,21 +5658,21 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>263</v>
+        <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>264</v>
+        <v>93</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>266</v>
+        <v>216</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5730,13 +5695,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>133</v>
+        <v>218</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5775,19 +5740,17 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB40" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AB40" s="2"/>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>134</v>
+        <v>221</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5805,7 +5768,7 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5816,18 +5779,20 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>222</v>
+      </c>
       <c r="C41" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5839,17 +5804,15 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>137</v>
+        <v>217</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5874,37 +5837,37 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>40</v>
+        <v>206</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>40</v>
+        <v>224</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>140</v>
+        <v>221</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -5916,7 +5879,7 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>135</v>
+        <v>93</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5927,7 +5890,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>268</v>
+        <v>157</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5935,7 +5898,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>50</v>
@@ -5950,26 +5913,26 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>40</v>
@@ -5999,23 +5962,25 @@
         <v>40</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB42" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -6027,22 +5992,20 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>150</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>268</v>
-      </c>
-      <c r="B43" t="s" s="2">
-        <v>270</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6063,20 +6026,18 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>271</v>
+        <v>167</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>144</v>
+        <v>168</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6100,11 +6061,13 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X43" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y43" t="s" s="2">
-        <v>272</v>
+        <v>40</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6122,13 +6085,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>148</v>
+        <v>170</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -6140,18 +6103,18 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>149</v>
+        <v>171</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>150</v>
+        <v>172</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>273</v>
+        <v>173</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6174,19 +6137,17 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>274</v>
+        <v>174</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M44" s="2"/>
       <c r="N44" t="s" s="2">
-        <v>230</v>
+        <v>176</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6235,7 +6196,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>231</v>
+        <v>177</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6253,18 +6214,18 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>232</v>
+        <v>178</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>233</v>
+        <v>179</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>276</v>
+        <v>180</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6275,30 +6236,30 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H45" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I45" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J45" t="s" s="2">
-        <v>277</v>
+        <v>130</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>278</v>
+        <v>181</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="M45" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="M45" s="2"/>
+      <c r="N45" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6346,36 +6307,36 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>276</v>
+        <v>184</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>281</v>
+        <v>40</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>282</v>
+        <v>185</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>283</v>
+        <v>187</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6395,19 +6356,23 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>131</v>
+        <v>188</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>132</v>
+        <v>189</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M46" s="2"/>
-      <c r="N46" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6455,7 +6420,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6473,29 +6438,31 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="B47" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>226</v>
+      </c>
       <c r="C47" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6504,21 +6471,23 @@
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N47" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6542,13 +6511,11 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X47" s="2"/>
       <c r="Y47" t="s" s="2">
-        <v>40</v>
+        <v>228</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6566,7 +6533,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6584,51 +6551,49 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>40</v>
+        <v>149</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>285</v>
+        <v>155</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M48" s="2"/>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6677,13 +6642,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>288</v>
+        <v>133</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6695,7 +6660,7 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6706,21 +6671,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>289</v>
+        <v>156</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -6729,15 +6694,17 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>290</v>
+        <v>95</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>291</v>
+        <v>136</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M49" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6774,23 +6741,25 @@
         <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="AB49" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>138</v>
+      </c>
       <c r="AC49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>181</v>
+        <v>99</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>289</v>
+        <v>139</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
@@ -6799,31 +6768,29 @@
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>293</v>
+        <v>134</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B50" t="s" s="2">
-        <v>295</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>50</v>
@@ -6835,25 +6802,29 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>118</v>
+        <v>63</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>296</v>
+        <v>158</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M50" s="2"/>
-      <c r="N50" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>40</v>
+        <v>229</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>40</v>
@@ -6895,10 +6866,10 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>289</v>
+        <v>163</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>50</v>
@@ -6910,21 +6881,21 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>293</v>
+        <v>164</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>294</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>298</v>
+        <v>166</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6944,18 +6915,20 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>132</v>
+        <v>167</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M51" s="2"/>
+        <v>168</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>169</v>
+      </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -7004,7 +6977,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7022,29 +6995,29 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>299</v>
+        <v>173</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -7053,21 +7026,21 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N52" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7103,25 +7076,25 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>139</v>
+        <v>40</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
@@ -7133,18 +7106,18 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>135</v>
+        <v>178</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>300</v>
+        <v>180</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7155,7 +7128,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7167,19 +7140,17 @@
         <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>143</v>
+        <v>181</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" t="s" s="2">
-        <v>146</v>
+        <v>183</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7216,23 +7187,25 @@
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="AB53" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7244,22 +7217,20 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>150</v>
+        <v>186</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="B54" t="s" s="2">
-        <v>301</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7280,19 +7251,19 @@
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>302</v>
+        <v>189</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>144</v>
+        <v>190</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>146</v>
+        <v>192</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7317,11 +7288,13 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="X54" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y54" t="s" s="2">
-        <v>303</v>
+        <v>40</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7339,13 +7312,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>148</v>
+        <v>193</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7357,18 +7330,18 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>149</v>
+        <v>194</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>150</v>
+        <v>195</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>304</v>
+        <v>230</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7391,19 +7364,19 @@
         <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>274</v>
+        <v>231</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>275</v>
+        <v>232</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7452,7 +7425,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7470,22 +7443,20 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B56" t="s" s="2">
-        <v>305</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7497,24 +7468,26 @@
         <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>306</v>
+        <v>69</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>307</v>
+        <v>239</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="M56" s="2"/>
+        <v>240</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7539,13 +7512,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>40</v>
+        <v>223</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>40</v>
+        <v>242</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7563,10 +7536,10 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>289</v>
+        <v>238</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>50</v>
@@ -7578,21 +7551,21 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>126</v>
+        <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>293</v>
+        <v>244</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>294</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7606,27 +7579,25 @@
         <v>50</v>
       </c>
       <c r="G57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I57" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H57" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I57" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J57" t="s" s="2">
-        <v>215</v>
+        <v>188</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>309</v>
+        <v>246</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>310</v>
+        <v>247</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" t="s" s="2">
-        <v>311</v>
-      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7674,7 +7645,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>308</v>
+        <v>245</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7689,21 +7660,21 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>40</v>
+        <v>248</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7717,22 +7688,22 @@
         <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I58" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H58" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I58" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="J58" t="s" s="2">
-        <v>313</v>
+        <v>188</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7783,7 +7754,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>312</v>
+        <v>250</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7798,21 +7769,21 @@
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>316</v>
+        <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>317</v>
+        <v>253</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>318</v>
+        <v>40</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7832,16 +7803,16 @@
         <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>320</v>
+        <v>256</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>321</v>
+        <v>257</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7892,7 +7863,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>319</v>
+        <v>254</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7904,24 +7875,24 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>40</v>
+        <v>259</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>40</v>
+        <v>260</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>324</v>
+        <v>261</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7935,7 +7906,7 @@
         <v>50</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>40</v>
@@ -7944,15 +7915,17 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>132</v>
+        <v>262</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="M60" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -7977,13 +7950,11 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X60" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X60" s="2"/>
       <c r="Y60" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -8001,7 +7972,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8016,25 +7987,25 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>40</v>
+        <v>266</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>135</v>
+        <v>267</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>40</v>
+        <v>268</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>325</v>
+        <v>269</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8044,7 +8015,7 @@
         <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -8053,16 +8024,16 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>95</v>
+        <v>270</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>137</v>
+        <v>271</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>138</v>
+        <v>272</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>115</v>
+        <v>273</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8112,7 +8083,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>140</v>
+        <v>269</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8124,13 +8095,13 @@
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>40</v>
+        <v>274</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>135</v>
+        <v>275</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8141,40 +8112,38 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>326</v>
+        <v>276</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M62" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M62" s="2"/>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8223,13 +8192,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>288</v>
+        <v>133</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8241,7 +8210,7 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8252,18 +8221,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>327</v>
+        <v>277</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8275,15 +8244,17 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>328</v>
+        <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M63" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8308,13 +8279,13 @@
         <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>330</v>
+        <v>40</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>331</v>
+        <v>40</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>40</v>
@@ -8332,13 +8303,13 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>327</v>
+        <v>139</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8347,10 +8318,10 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8361,11 +8332,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>332</v>
+        <v>278</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>40</v>
+        <v>279</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8378,21 +8349,23 @@
         <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>277</v>
+        <v>95</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>333</v>
+        <v>113</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="M64" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="M64" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8441,7 +8414,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8453,13 +8426,13 @@
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>322</v>
+        <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>335</v>
+        <v>93</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8470,7 +8443,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>336</v>
+        <v>282</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8478,13 +8451,13 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
@@ -8493,13 +8466,13 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>132</v>
+        <v>284</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>133</v>
+        <v>285</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8538,22 +8511,20 @@
         <v>40</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="AB65" s="2"/>
       <c r="AC65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>134</v>
+        <v>282</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>50</v>
@@ -8565,32 +8536,34 @@
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="B66" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="C66" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8602,17 +8575,15 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>137</v>
+        <v>289</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="M66" s="2"/>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8637,13 +8608,11 @@
         <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X66" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X66" s="2"/>
       <c r="Y66" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>40</v>
@@ -8661,13 +8630,13 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>140</v>
+        <v>282</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
@@ -8676,54 +8645,54 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>135</v>
+        <v>286</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B67" s="2"/>
+        <v>282</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>292</v>
+      </c>
       <c r="C67" t="s" s="2">
-        <v>286</v>
+        <v>40</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>95</v>
+        <v>293</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>113</v>
+        <v>294</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="M67" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="M67" s="2"/>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -8772,13 +8741,13 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
@@ -8787,21 +8756,21 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>93</v>
+        <v>286</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>40</v>
+        <v>287</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8809,13 +8778,13 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
@@ -8824,16 +8793,18 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>340</v>
+        <v>188</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
+      <c r="N68" t="s" s="2">
+        <v>298</v>
+      </c>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
@@ -8881,10 +8852,10 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>339</v>
+        <v>295</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>50</v>
@@ -8896,10 +8867,10 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>244</v>
+        <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>293</v>
+        <v>253</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -8908,9 +8879,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8924,7 +8895,7 @@
         <v>50</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -8933,13 +8904,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>346</v>
+        <v>302</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8990,7 +8961,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9005,21 +8976,21 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>244</v>
+        <v>303</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>317</v>
+        <v>304</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>40</v>
+        <v>305</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9042,13 +9013,13 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9099,25 +9070,25 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9128,7 +9099,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>351</v>
+        <v>311</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9151,13 +9122,13 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K71" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="K71" t="s" s="2">
+      <c r="L71" t="s" s="2">
         <v>132</v>
-      </c>
-      <c r="L71" t="s" s="2">
-        <v>133</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9208,25 +9179,25 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK71" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="AF71" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG71" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ71" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK71" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9237,7 +9208,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>352</v>
+        <v>312</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9263,10 +9234,10 @@
         <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>137</v>
-      </c>
-      <c r="L72" t="s" s="2">
-        <v>138</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>115</v>
@@ -9319,7 +9290,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9337,7 +9308,7 @@
         <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9348,11 +9319,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9377,7 +9348,7 @@
         <v>113</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>115</v>
@@ -9430,7 +9401,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>288</v>
+        <v>281</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9457,9 +9428,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9473,7 +9444,7 @@
         <v>50</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -9482,13 +9453,13 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>355</v>
+        <v>315</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>356</v>
+        <v>316</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9515,13 +9486,13 @@
         <v>40</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>40</v>
+        <v>317</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>40</v>
+        <v>318</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>40</v>
@@ -9539,7 +9510,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>354</v>
+        <v>314</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9554,21 +9525,21 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>357</v>
+        <v>126</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>358</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9579,10 +9550,10 @@
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
@@ -9591,13 +9562,13 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>360</v>
+        <v>270</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>361</v>
+        <v>320</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9648,36 +9619,36 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>359</v>
+        <v>319</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>40</v>
+        <v>309</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>363</v>
+        <v>322</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>364</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>365</v>
+        <v>323</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9688,7 +9659,7 @@
         <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>40</v>
@@ -9700,18 +9671,16 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>366</v>
+        <v>130</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>367</v>
+        <v>131</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>368</v>
+        <v>132</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" t="s" s="2">
-        <v>369</v>
-      </c>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>40</v>
       </c>
@@ -9759,35 +9728,1244 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>365</v>
+        <v>133</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="77" hidden="true">
+      <c r="A77" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="B77" s="2"/>
+      <c r="C77" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="D77" s="2"/>
+      <c r="E77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F77" t="s" s="2">
         <v>42</v>
       </c>
-      <c r="AH76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK76" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="AL76" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM76" t="s" s="2">
+      <c r="G77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P77" s="2"/>
+      <c r="Q77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="78" hidden="true">
+      <c r="A78" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="B78" s="2"/>
+      <c r="C78" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N78" s="2"/>
+      <c r="O78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P78" s="2"/>
+      <c r="Q78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="79" hidden="true">
+      <c r="A79" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="B79" s="2"/>
+      <c r="C79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D79" s="2"/>
+      <c r="E79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="F79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J79" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="K79" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="L79" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="M79" s="2"/>
+      <c r="N79" s="2"/>
+      <c r="O79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P79" s="2"/>
+      <c r="Q79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE79" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AF79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AG79" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ79" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK79" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AL79" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM79" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" hidden="true">
+      <c r="A80" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="B80" s="2"/>
+      <c r="C80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D80" s="2"/>
+      <c r="E80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J80" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="K80" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="L80" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="M80" s="2"/>
+      <c r="N80" s="2"/>
+      <c r="O80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P80" s="2"/>
+      <c r="Q80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE80" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK80" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="AL80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM80" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="B81" s="2"/>
+      <c r="C81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D81" s="2"/>
+      <c r="E81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F81" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G81" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J81" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="K81" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="L81" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="M81" s="2"/>
+      <c r="N81" s="2"/>
+      <c r="O81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P81" s="2"/>
+      <c r="Q81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE81" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AF81" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG81" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI81" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AJ81" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK81" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="82" hidden="true">
+      <c r="A82" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="B82" s="2"/>
+      <c r="C82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J82" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K82" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L82" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M82" s="2"/>
+      <c r="N82" s="2"/>
+      <c r="O82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P82" s="2"/>
+      <c r="Q82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE82" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="AF82" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG82" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK82" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL82" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM82" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" hidden="true">
+      <c r="A83" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B83" s="2"/>
+      <c r="C83" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J83" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K83" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L83" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="M83" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N83" s="2"/>
+      <c r="O83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P83" s="2"/>
+      <c r="Q83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE83" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AF83" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG83" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK83" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AL83" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM83" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="84" hidden="true">
+      <c r="A84" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="B84" s="2"/>
+      <c r="C84" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="D84" s="2"/>
+      <c r="E84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="I84" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="J84" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="K84" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="L84" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M84" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N84" s="2"/>
+      <c r="O84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE84" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="AF84" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG84" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK84" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AL84" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM84" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="B85" s="2"/>
+      <c r="C85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D85" s="2"/>
+      <c r="E85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F85" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G85" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J85" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="K85" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="L85" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="M85" s="2"/>
+      <c r="N85" s="2"/>
+      <c r="O85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE85" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="AF85" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG85" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ85" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK85" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL85" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM85" t="s" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="B86" s="2"/>
+      <c r="C86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D86" s="2"/>
+      <c r="E86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G86" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J86" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="K86" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="L86" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="M86" s="2"/>
+      <c r="N86" s="2"/>
+      <c r="O86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE86" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AF86" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG86" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ86" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK86" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="AL86" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM86" t="s" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="87" hidden="true">
+      <c r="A87" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J87" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="K87" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="M87" s="2"/>
+      <c r="N87" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="O87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE87" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="AF87" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG87" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK87" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM87" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM76">
+  <autoFilter ref="A1:AM87">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -9797,7 +10975,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI75">
+  <conditionalFormatting sqref="A2:AI86">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/medication-dh-base-1.xlsx
+++ b/output/SharedMedicinesList/medication-dh-base-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$76</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2645" uniqueCount="371">
   <si>
     <t>Path</t>
   </si>
@@ -418,6 +418,10 @@
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
   </si>
   <si>
+    <t>inv-amt-tpuu:AMT TPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpuu-codes'}
+inv-amt-tpp:AMT TPU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tpp-codes'}inv-amt-tp:AMT TP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-tp-codes'}inv-amt-mpuu:AMT MPUU valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPDSF').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpuu-codes'}inv-amt-mpp:AMT MPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPG').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mpp-codes'}inv-amt-mp:AMT MP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='UPD').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-mp-codes'}inv-amt-ctpp:AMT CTPP valueset membership required {coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').exists() implies coding.where(system='http://snomed.info/sct' and extension.where(url='http://hl7.org.au/fhir/CodeSystem/medication-type').valueCoding='BPGC').first().code in 'http://hl7.org.au/fhir/ValueSet/amt-ctpp-codes'}</t>
+  </si>
+  <si>
     <t>coding.code = //element(*,MedicationType)/DrugCoded/ProductCode  coding.system = //element(*,MedicationType)/DrugCoded/ProductCodeQualifier@@ -487,38 +491,121 @@
     <t>Allows for translations and alternate encodings within a code system.  Also supports communication of the same instance to systems requiring different encodings.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
+    <t>value:system}
+value:code}</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>pbs</t>
+  </si>
+  <si>
+    <t>PBS Item Code</t>
+  </si>
+  <si>
+    <t>PBS code from http://pbs.gov.au/code/item. Use of PBS as a code to refer to a type of medication, this excludes implication of context based on the PBS code. Where context is to be implied or stated PBS code needs to be associated with recording a prescription (MedicationRequest) or dispense record(MedicationDispense)</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>http://hl7.org.au/fhir/ValueSet/pbs-item</t>
+  </si>
+  <si>
+    <t>gtin</t>
+  </si>
+  <si>
+    <t>Medication Package Global Trade Item Number (GTIN)</t>
+  </si>
+  <si>
+    <t>GTIN value from http://www.gs1.org/gtin.</t>
+  </si>
+  <si>
+    <t>http://hl7.org.au/fhir/ValueSet/gtin</t>
+  </si>
+  <si>
+    <t>amt</t>
+  </si>
+  <si>
+    <t>AMT Medicines</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-medication-1</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.extension</t>
+  </si>
+  <si>
+    <t>medicationClass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-type}
 </t>
   </si>
   <si>
-    <t>CodeableConcept.coding</t>
-  </si>
-  <si>
-    <t>union(., ./translation)</t>
-  </si>
-  <si>
-    <t>C*E.1-8, C*E.10-22</t>
-  </si>
-  <si>
-    <t>pbs</t>
-  </si>
-  <si>
-    <t>PBS Item Code</t>
-  </si>
-  <si>
-    <t>PBS code from http://pbs.gov.au/code/item. Use of PBS as a code to refer to a type of medication, this excludes implication of context based on the PBS code. Where context is to be implied or stated PBS code needs to be associated with recording a prescription (MedicationRequest) or dispense record(MedicationDispense)</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/ValueSet/pbs-item</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.id</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.extension</t>
+    <t>Medication Type</t>
+  </si>
+  <si>
+    <t>A classifying type code to assist identifying a coding usage</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.extension.id</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.extension.extension</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org.au/fhir/StructureDefinition/medication-type</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>Medication.code.coding.extension.value[x]</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueCoding</t>
+  </si>
+  <si>
+    <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
   </si>
   <si>
     <t>Medication.code.coding.system</t>
@@ -534,9 +621,6 @@
   </si>
   <si>
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>http://pbs.gov.au/code/item</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -639,98 +723,6 @@
     <t>Sometimes implied by being first</t>
   </si>
   <si>
-    <t>gtin</t>
-  </si>
-  <si>
-    <t>Medication Package Global Trade Item Number (GTIN)</t>
-  </si>
-  <si>
-    <t>GTIN value from http://www.gs1.org/gtin.</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/ValueSet/gtin</t>
-  </si>
-  <si>
-    <t>http://www.gs1.org/gtin</t>
-  </si>
-  <si>
-    <t>amt</t>
-  </si>
-  <si>
-    <t>AMT Medicines</t>
-  </si>
-  <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/australian-medication-1</t>
-  </si>
-  <si>
-    <t>medicationClass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://hl7.org.au/fhir/StructureDefinition/medication-type}
-</t>
-  </si>
-  <si>
-    <t>Medication Type</t>
-  </si>
-  <si>
-    <t>A classifying type code to assist identifying a coding usage</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/medication-type</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCoding</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
-  </si>
-  <si>
-    <t>http://snomed.info/sct</t>
-  </si>
-  <si>
     <t>mimsPackage</t>
   </si>
   <si>
@@ -738,9 +730,6 @@
   </si>
   <si>
     <t>http://hl7.org.au/fhir/ValueSet/mims</t>
-  </si>
-  <si>
-    <t>http://www.mims.com.au/codes</t>
   </si>
   <si>
     <t>Medication.code.text</t>
@@ -850,7 +839,10 @@
     <t>When Medication is referenced from MedicationRequest, this is the ordered form.  When Medication is referenced within MedicationDispense, this is the dispensed form.  When Medication is referenced within MedicationAdministration, this is administered form.</t>
   </si>
   <si>
-    <t>https://healthterminologies.gov.au/fhir/ValueSet/medication-form-1</t>
+    <t>A coded concept defining the form of a medication</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/medication-form-codes</t>
   </si>
   <si>
     <t>coding.code =  //element(*,DrugCodedType)/FormCode@@ -864,6 +856,37 @@
     <t>RXO-5-Requested Dosage Form / RXE-6-Give Dosage Form / RXD-6-Actual Dosage Form / RXG-8-Give Dosage Form / RXA-8-Administered Dosage Form</t>
   </si>
   <si>
+    <t>Medication.form.id</t>
+  </si>
+  <si>
+    <t>Medication.form.extension</t>
+  </si>
+  <si>
+    <t>Medication.form.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:system}
+</t>
+  </si>
+  <si>
+    <t>snomedForm</t>
+  </si>
+  <si>
+    <t>Medication Form (SNOMED CT)</t>
+  </si>
+  <si>
+    <t>https://healthterminologies.gov.au/fhir/ValueSet/medication-form-1</t>
+  </si>
+  <si>
+    <t>Medication.form.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
     <t>Medication.ingredient</t>
   </si>
   <si>
@@ -934,7 +957,25 @@
     <t>Coding for a substance or medicinal product  that is an ingredient of the medication.</t>
   </si>
   <si>
+    <t>Medication.ingredient.item[x].id</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].extension</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].coding</t>
+  </si>
+  <si>
+    <t>amtMP</t>
+  </si>
+  <si>
+    <t>AMT Medicinal Product Ingredient</t>
+  </si>
+  <si>
     <t>http://hl7.org.au/fhir/ValueSet/amt-mp-codes</t>
+  </si>
+  <si>
+    <t>Medication.ingredient.item[x].text</t>
   </si>
   <si>
     <t>itemReference</t>
@@ -1289,7 +1330,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM87"/>
+  <dimension ref="A1:AM76"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2767,24 +2808,24 @@
         <v>40</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2807,13 +2848,13 @@
         <v>40</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2864,7 +2905,7 @@
         <v>40</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -2882,7 +2923,7 @@
         <v>40</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>40</v>
@@ -2893,7 +2934,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2919,10 +2960,10 @@
         <v>95</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
         <v>115</v>
@@ -2966,7 +3007,7 @@
         <v>98</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AC15" t="s" s="2">
         <v>40</v>
@@ -2975,7 +3016,7 @@
         <v>99</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -2993,7 +3034,7 @@
         <v>40</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>40</v>
@@ -3004,7 +3045,7 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3027,19 +3068,19 @@
         <v>51</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>40</v>
@@ -3076,7 +3117,7 @@
         <v>40</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="AB16" s="2"/>
       <c r="AC16" t="s" s="2">
@@ -3086,7 +3127,7 @@
         <v>99</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3104,21 +3145,21 @@
         <v>40</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C17" t="s" s="2">
         <v>40</v>
@@ -3140,19 +3181,19 @@
         <v>51</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -3177,11 +3218,11 @@
         <v>40</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X17" s="2"/>
       <c r="Y17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>40</v>
@@ -3199,7 +3240,7 @@
         <v>40</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3217,20 +3258,22 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>156</v>
+      </c>
       <c r="C18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3239,7 +3282,7 @@
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>40</v>
@@ -3248,19 +3291,23 @@
         <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>131</v>
+        <v>157</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="M18" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="N18" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3284,13 +3331,11 @@
         <v>40</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X18" s="2"/>
       <c r="Y18" t="s" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="Z18" t="s" s="2">
         <v>40</v>
@@ -3308,13 +3353,13 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>40</v>
@@ -3326,22 +3371,24 @@
         <v>40</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B19" s="2"/>
+        <v>141</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="C19" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
@@ -3357,21 +3404,23 @@
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O19" t="s" s="2">
         <v>40</v>
       </c>
@@ -3395,31 +3444,29 @@
         <v>40</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X19" s="2"/>
       <c r="Y19" t="s" s="2">
-        <v>40</v>
+        <v>162</v>
       </c>
       <c r="Z19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AC19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
@@ -3437,18 +3484,18 @@
         <v>40</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>40</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3456,7 +3503,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>50</v>
@@ -3468,29 +3515,25 @@
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>63</v>
+        <v>131</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>158</v>
+        <v>132</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
-        <v>162</v>
+        <v>40</v>
       </c>
       <c r="R20" t="s" s="2">
         <v>40</v>
@@ -3532,7 +3575,7 @@
         <v>40</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>163</v>
+        <v>134</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3550,18 +3593,18 @@
         <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>165</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3572,7 +3615,7 @@
         <v>41</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3581,20 +3624,18 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>167</v>
+        <v>96</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
@@ -3631,25 +3672,25 @@
         <v>40</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="AC21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
@@ -3661,20 +3702,22 @@
         <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="B22" s="2"/>
+        <v>164</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>165</v>
+      </c>
       <c r="C22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3692,21 +3735,19 @@
         <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>69</v>
+        <v>166</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="M22" s="2"/>
-      <c r="N22" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
       </c>
@@ -3754,13 +3795,13 @@
         <v>40</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH22" t="s" s="2">
         <v>40</v>
@@ -3772,18 +3813,18 @@
         <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>180</v>
+        <v>169</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3803,21 +3844,19 @@
         <v>40</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>181</v>
+        <v>132</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>182</v>
+        <v>133</v>
       </c>
       <c r="M23" s="2"/>
-      <c r="N23" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
       </c>
@@ -3865,7 +3904,7 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>184</v>
+        <v>134</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -3883,29 +3922,29 @@
         <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>40</v>
@@ -3914,23 +3953,21 @@
         <v>40</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>189</v>
+        <v>137</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>190</v>
+        <v>138</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3966,25 +4003,25 @@
         <v>40</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="AC24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>193</v>
+        <v>140</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
@@ -3996,31 +4033,29 @@
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>195</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B25" t="s" s="2">
-        <v>196</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>40</v>
@@ -4029,29 +4064,27 @@
         <v>40</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>141</v>
+        <v>63</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>197</v>
+        <v>172</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="R25" t="s" s="2">
         <v>40</v>
@@ -4069,11 +4102,13 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>199</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
@@ -4091,13 +4126,13 @@
         <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -4109,18 +4144,18 @@
         <v>40</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>148</v>
+        <v>93</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>155</v>
+        <v>177</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4143,13 +4178,13 @@
         <v>40</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>131</v>
+        <v>178</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>132</v>
+        <v>179</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4188,19 +4223,17 @@
         <v>40</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AB26" s="2"/>
       <c r="AC26" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>40</v>
+        <v>181</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>133</v>
+        <v>182</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>41</v>
@@ -4218,7 +4251,7 @@
         <v>40</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>40</v>
@@ -4229,18 +4262,20 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B27" s="2"/>
+        <v>177</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="C27" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>40</v>
@@ -4252,17 +4287,15 @@
         <v>40</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>95</v>
+        <v>142</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>136</v>
+        <v>178</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>40</v>
@@ -4287,37 +4320,37 @@
         <v>40</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>40</v>
+        <v>167</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>40</v>
+        <v>184</v>
       </c>
       <c r="Z27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AC27" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>139</v>
+        <v>182</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4329,7 +4362,7 @@
         <v>40</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AL27" t="s" s="2">
         <v>40</v>
@@ -4340,7 +4373,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>157</v>
+        <v>185</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4348,7 +4381,7 @@
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s" s="2">
         <v>50</v>
@@ -4366,23 +4399,23 @@
         <v>63</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="O28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
-        <v>200</v>
+        <v>40</v>
       </c>
       <c r="R28" t="s" s="2">
         <v>40</v>
@@ -4424,7 +4457,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>163</v>
+        <v>190</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4442,18 +4475,18 @@
         <v>40</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>164</v>
+        <v>191</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>165</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>166</v>
+        <v>193</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4476,16 +4509,16 @@
         <v>51</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>167</v>
+        <v>194</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>168</v>
+        <v>195</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>169</v>
+        <v>196</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4535,7 +4568,7 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4553,18 +4586,18 @@
         <v>40</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>171</v>
+        <v>198</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>172</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4590,14 +4623,14 @@
         <v>69</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>174</v>
+        <v>201</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>175</v>
+        <v>202</v>
       </c>
       <c r="M30" s="2"/>
       <c r="N30" t="s" s="2">
-        <v>176</v>
+        <v>203</v>
       </c>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4646,7 +4679,7 @@
         <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>177</v>
+        <v>204</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4664,18 +4697,18 @@
         <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>178</v>
+        <v>205</v>
       </c>
       <c r="AL30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>179</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>180</v>
+        <v>207</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4698,17 +4731,17 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>181</v>
+        <v>208</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>182</v>
+        <v>209</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" t="s" s="2">
-        <v>183</v>
+        <v>210</v>
       </c>
       <c r="O31" t="s" s="2">
         <v>40</v>
@@ -4757,7 +4790,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>184</v>
+        <v>211</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4775,18 +4808,18 @@
         <v>40</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>185</v>
+        <v>212</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>186</v>
+        <v>213</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>187</v>
+        <v>214</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4809,19 +4842,19 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>190</v>
+        <v>217</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>192</v>
+        <v>219</v>
       </c>
       <c r="O32" t="s" s="2">
         <v>40</v>
@@ -4870,7 +4903,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>193</v>
+        <v>220</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4888,21 +4921,21 @@
         <v>40</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>195</v>
+        <v>222</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="C33" t="s" s="2">
         <v>40</v>
@@ -4912,7 +4945,7 @@
         <v>41</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>40</v>
@@ -4924,19 +4957,19 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4961,11 +4994,11 @@
         <v>40</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="X33" s="2"/>
       <c r="Y33" t="s" s="2">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>40</v>
@@ -4983,7 +5016,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5001,18 +5034,18 @@
         <v>40</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="AL33" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>155</v>
+        <v>226</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5032,19 +5065,23 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
+        <v>228</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>230</v>
+      </c>
       <c r="O34" t="s" s="2">
         <v>40</v>
       </c>
@@ -5092,7 +5129,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>133</v>
+        <v>231</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5110,18 +5147,18 @@
         <v>40</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>134</v>
+        <v>232</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>156</v>
+        <v>234</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5132,27 +5169,29 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>95</v>
+        <v>69</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>96</v>
+        <v>235</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M35" s="2"/>
+        <v>236</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>237</v>
+      </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -5177,37 +5216,37 @@
         <v>40</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>40</v>
+        <v>154</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>40</v>
+        <v>238</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>40</v>
+        <v>239</v>
       </c>
       <c r="Z35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AC35" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>139</v>
+        <v>234</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5219,7 +5258,7 @@
         <v>40</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>40</v>
+        <v>240</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5230,11 +5269,9 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>204</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
         <v>40</v>
       </c>
@@ -5252,16 +5289,16 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
@@ -5312,13 +5349,13 @@
         <v>40</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>139</v>
+        <v>241</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5327,13 +5364,13 @@
         <v>40</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>40</v>
+        <v>245</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
@@ -5341,7 +5378,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5361,16 +5398,16 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>132</v>
+        <v>248</v>
       </c>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
@@ -5421,7 +5458,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>133</v>
+        <v>246</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5439,51 +5476,49 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>134</v>
+        <v>249</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>95</v>
+        <v>251</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>136</v>
+        <v>252</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5520,25 +5555,25 @@
         <v>40</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>139</v>
+        <v>250</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5547,21 +5582,21 @@
         <v>40</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>134</v>
+        <v>254</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>210</v>
+        <v>257</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5569,13 +5604,13 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H39" t="s" s="2">
         <v>40</v>
@@ -5584,16 +5619,16 @@
         <v>40</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>211</v>
+        <v>258</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>212</v>
+        <v>259</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>213</v>
+        <v>260</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
@@ -5601,7 +5636,7 @@
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>40</v>
@@ -5619,13 +5654,13 @@
         <v>40</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>40</v>
+        <v>261</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>40</v>
+        <v>262</v>
       </c>
       <c r="Z39" t="s" s="2">
         <v>40</v>
@@ -5643,10 +5678,10 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>50</v>
@@ -5658,21 +5693,21 @@
         <v>40</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>93</v>
+        <v>264</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>40</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>216</v>
+        <v>266</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5695,13 +5730,13 @@
         <v>40</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>217</v>
+        <v>132</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>218</v>
+        <v>133</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5740,17 +5775,19 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB40" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5768,7 +5805,7 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
@@ -5779,20 +5816,18 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>40</v>
@@ -5804,15 +5839,17 @@
         <v>40</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>217</v>
+        <v>137</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M41" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>40</v>
@@ -5837,37 +5874,37 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="AC41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>221</v>
+        <v>140</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>40</v>
@@ -5879,7 +5916,7 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
@@ -5890,7 +5927,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5898,7 +5935,7 @@
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>50</v>
@@ -5913,26 +5950,26 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>158</v>
+        <v>143</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>40</v>
@@ -5962,25 +5999,23 @@
         <v>40</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB42" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="AB42" s="2"/>
       <c r="AC42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -5992,20 +6027,22 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>165</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>166</v>
-      </c>
-      <c r="B43" s="2"/>
+        <v>268</v>
+      </c>
+      <c r="B43" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="C43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6026,18 +6063,20 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>167</v>
+        <v>271</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="N43" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="N43" t="s" s="2">
+        <v>146</v>
+      </c>
       <c r="O43" t="s" s="2">
         <v>40</v>
       </c>
@@ -6061,13 +6100,11 @@
         <v>40</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X43" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X43" s="2"/>
       <c r="Y43" t="s" s="2">
-        <v>40</v>
+        <v>272</v>
       </c>
       <c r="Z43" t="s" s="2">
         <v>40</v>
@@ -6085,13 +6122,13 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>40</v>
@@ -6103,18 +6140,18 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>172</v>
+        <v>150</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -6137,17 +6174,19 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M44" s="2"/>
+        <v>275</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>229</v>
+      </c>
       <c r="N44" t="s" s="2">
-        <v>176</v>
+        <v>230</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>40</v>
@@ -6196,7 +6235,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6214,18 +6253,18 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>178</v>
+        <v>232</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>179</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6236,30 +6275,30 @@
         <v>41</v>
       </c>
       <c r="F45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>181</v>
+        <v>278</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M45" s="2"/>
-      <c r="N45" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>279</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
@@ -6307,36 +6346,36 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>184</v>
+        <v>276</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>40</v>
+        <v>281</v>
       </c>
       <c r="AJ45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>187</v>
+        <v>283</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6356,23 +6395,19 @@
         <v>40</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M46" s="2"/>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6420,7 +6455,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>193</v>
+        <v>134</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6438,31 +6473,29 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>194</v>
+        <v>135</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>195</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>284</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>40</v>
@@ -6471,23 +6504,21 @@
         <v>40</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>141</v>
+        <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>137</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="N47" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6511,11 +6542,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6533,7 +6566,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6551,49 +6584,51 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>155</v>
+        <v>285</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F48" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H48" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M48" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>40</v>
@@ -6642,13 +6677,13 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH48" t="s" s="2">
         <v>40</v>
@@ -6660,7 +6695,7 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
@@ -6671,21 +6706,21 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>156</v>
+        <v>289</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>40</v>
@@ -6694,17 +6729,15 @@
         <v>40</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>95</v>
+        <v>290</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>136</v>
+        <v>291</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M49" s="2"/>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>40</v>
@@ -6741,25 +6774,23 @@
         <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>138</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="AB49" s="2"/>
       <c r="AC49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>99</v>
+        <v>181</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>139</v>
+        <v>289</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
@@ -6768,29 +6799,31 @@
         <v>40</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>134</v>
+        <v>293</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B50" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>295</v>
+      </c>
       <c r="C50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>50</v>
@@ -6802,29 +6835,25 @@
         <v>40</v>
       </c>
       <c r="I50" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>158</v>
+        <v>296</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>159</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>161</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="M50" s="2"/>
+      <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>40</v>
@@ -6866,10 +6895,10 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>163</v>
+        <v>289</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>50</v>
@@ -6881,21 +6910,21 @@
         <v>40</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>164</v>
+        <v>293</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>165</v>
+        <v>294</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>166</v>
+        <v>298</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6915,20 +6944,18 @@
         <v>40</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>167</v>
+        <v>132</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M51" s="2"/>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
         <v>40</v>
@@ -6977,7 +7004,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>170</v>
+        <v>134</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6995,29 +7022,29 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>171</v>
+        <v>135</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>173</v>
+        <v>299</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F52" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>40</v>
@@ -7026,21 +7053,21 @@
         <v>40</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7076,25 +7103,25 @@
         <v>40</v>
       </c>
       <c r="AA52" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>40</v>
+        <v>139</v>
       </c>
       <c r="AC52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD52" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>177</v>
+        <v>140</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH52" t="s" s="2">
         <v>40</v>
@@ -7106,18 +7133,18 @@
         <v>40</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>178</v>
+        <v>135</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7128,7 +7155,7 @@
         <v>41</v>
       </c>
       <c r="F53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G53" t="s" s="2">
         <v>40</v>
@@ -7140,17 +7167,19 @@
         <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>181</v>
+        <v>143</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M53" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>145</v>
+      </c>
       <c r="N53" t="s" s="2">
-        <v>183</v>
+        <v>146</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>40</v>
@@ -7187,25 +7216,23 @@
         <v>40</v>
       </c>
       <c r="AA53" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB53" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="AB53" s="2"/>
       <c r="AC53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD53" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>184</v>
+        <v>148</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG53" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH53" t="s" s="2">
         <v>40</v>
@@ -7217,20 +7244,22 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>185</v>
+        <v>149</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>186</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>300</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>301</v>
+      </c>
       <c r="C54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7251,19 +7280,19 @@
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>188</v>
+        <v>142</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>189</v>
+        <v>302</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>190</v>
+        <v>144</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>191</v>
+        <v>145</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>192</v>
+        <v>146</v>
       </c>
       <c r="O54" t="s" s="2">
         <v>40</v>
@@ -7288,13 +7317,11 @@
         <v>40</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X54" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="X54" s="2"/>
       <c r="Y54" t="s" s="2">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>40</v>
@@ -7312,13 +7339,13 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>193</v>
+        <v>148</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG54" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH54" t="s" s="2">
         <v>40</v>
@@ -7330,18 +7357,18 @@
         <v>40</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>194</v>
+        <v>149</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>195</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>304</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7364,19 +7391,19 @@
         <v>51</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="O55" t="s" s="2">
         <v>40</v>
@@ -7425,7 +7452,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7443,20 +7470,22 @@
         <v>40</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>289</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>305</v>
+      </c>
       <c r="C56" t="s" s="2">
         <v>40</v>
       </c>
@@ -7468,26 +7497,24 @@
         <v>50</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>69</v>
+        <v>306</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>239</v>
+        <v>307</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>241</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="M56" s="2"/>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>40</v>
@@ -7512,13 +7539,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7536,10 +7563,10 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>238</v>
+        <v>289</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>50</v>
@@ -7551,21 +7578,21 @@
         <v>40</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>40</v>
+        <v>126</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>40</v>
+        <v>294</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7579,25 +7606,27 @@
         <v>50</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>188</v>
+        <v>215</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>246</v>
+        <v>309</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>247</v>
+        <v>310</v>
       </c>
       <c r="M57" s="2"/>
-      <c r="N57" s="2"/>
+      <c r="N57" t="s" s="2">
+        <v>311</v>
+      </c>
       <c r="O57" t="s" s="2">
         <v>40</v>
       </c>
@@ -7645,7 +7674,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>245</v>
+        <v>308</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7660,21 +7689,21 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>249</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7688,22 +7717,22 @@
         <v>50</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>188</v>
+        <v>313</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>251</v>
+        <v>314</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>252</v>
+        <v>315</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7754,7 +7783,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7769,21 +7798,21 @@
         <v>40</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>40</v>
+        <v>316</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>253</v>
+        <v>317</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>40</v>
+        <v>318</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>254</v>
+        <v>319</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7803,16 +7832,16 @@
         <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>255</v>
+        <v>277</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>256</v>
+        <v>320</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>257</v>
+        <v>321</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7863,7 +7892,7 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>254</v>
+        <v>319</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -7875,24 +7904,24 @@
         <v>40</v>
       </c>
       <c r="AI59" t="s" s="2">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>258</v>
+        <v>323</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7906,7 +7935,7 @@
         <v>50</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>40</v>
@@ -7915,17 +7944,15 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>262</v>
+        <v>132</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -7950,11 +7977,13 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
@@ -7972,7 +8001,7 @@
         <v>40</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>261</v>
+        <v>134</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -7987,25 +8016,25 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>266</v>
+        <v>40</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>267</v>
+        <v>135</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" t="s" s="2">
@@ -8015,7 +8044,7 @@
         <v>42</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -8024,16 +8053,16 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>270</v>
+        <v>95</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>271</v>
+        <v>137</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>272</v>
+        <v>138</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>273</v>
+        <v>115</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
@@ -8083,7 +8112,7 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>269</v>
+        <v>140</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8095,13 +8124,13 @@
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>275</v>
+        <v>135</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
@@ -8112,38 +8141,40 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>276</v>
+        <v>326</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H62" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>130</v>
+        <v>95</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>131</v>
+        <v>113</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M62" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N62" s="2"/>
       <c r="O62" t="s" s="2">
         <v>40</v>
@@ -8192,13 +8223,13 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>133</v>
+        <v>288</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>40</v>
@@ -8210,7 +8241,7 @@
         <v>40</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>134</v>
+        <v>93</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
@@ -8221,18 +8252,18 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>277</v>
+        <v>327</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>40</v>
@@ -8244,17 +8275,15 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>95</v>
+        <v>118</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>136</v>
+        <v>328</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>40</v>
@@ -8279,13 +8308,13 @@
         <v>40</v>
       </c>
       <c r="W63" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="X63" t="s" s="2">
-        <v>40</v>
+        <v>330</v>
       </c>
       <c r="Y63" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
       <c r="Z63" t="s" s="2">
         <v>40</v>
@@ -8303,13 +8332,13 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8318,10 +8347,10 @@
         <v>40</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8332,11 +8361,11 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>278</v>
+        <v>332</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8349,23 +8378,21 @@
         <v>40</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>95</v>
+        <v>277</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>113</v>
+        <v>333</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8414,7 +8441,7 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8426,13 +8453,13 @@
         <v>40</v>
       </c>
       <c r="AI64" t="s" s="2">
-        <v>40</v>
+        <v>322</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>93</v>
+        <v>335</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
@@ -8443,7 +8470,7 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>282</v>
+        <v>336</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8451,13 +8478,13 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>40</v>
@@ -8466,13 +8493,13 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>283</v>
+        <v>131</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>284</v>
+        <v>132</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>285</v>
+        <v>133</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8511,20 +8538,22 @@
         <v>40</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB65" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>282</v>
+        <v>134</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>50</v>
@@ -8536,34 +8565,32 @@
         <v>40</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F66" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G66" t="s" s="2">
         <v>40</v>
@@ -8575,15 +8602,17 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>289</v>
+        <v>137</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="M66" s="2"/>
+        <v>138</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
         <v>40</v>
@@ -8608,11 +8637,13 @@
         <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>40</v>
@@ -8630,13 +8661,13 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>282</v>
+        <v>140</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH66" t="s" s="2">
         <v>40</v>
@@ -8645,54 +8676,54 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>286</v>
+        <v>135</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>40</v>
+        <v>286</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>293</v>
+        <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>294</v>
+        <v>113</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -8741,13 +8772,13 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
@@ -8756,21 +8787,21 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8778,13 +8809,13 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F68" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>40</v>
@@ -8793,18 +8824,16 @@
         <v>40</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>188</v>
+        <v>340</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>298</v>
-      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
@@ -8852,10 +8881,10 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>50</v>
@@ -8867,10 +8896,10 @@
         <v>40</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>40</v>
+        <v>244</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -8879,9 +8908,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8895,7 +8924,7 @@
         <v>50</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -8904,13 +8933,13 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>300</v>
+        <v>344</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>301</v>
+        <v>345</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>302</v>
+        <v>346</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8961,7 +8990,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>299</v>
+        <v>343</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -8976,21 +9005,21 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>303</v>
+        <v>244</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>305</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9013,13 +9042,13 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>270</v>
+        <v>277</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>307</v>
+        <v>348</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>308</v>
+        <v>349</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9070,25 +9099,25 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>306</v>
+        <v>347</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9099,7 +9128,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9122,13 +9151,13 @@
         <v>40</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -9179,7 +9208,7 @@
         <v>40</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9197,7 +9226,7 @@
         <v>40</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>40</v>
@@ -9208,7 +9237,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>312</v>
+        <v>352</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9234,10 +9263,10 @@
         <v>95</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>115</v>
@@ -9290,7 +9319,7 @@
         <v>40</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9308,7 +9337,7 @@
         <v>40</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AL72" t="s" s="2">
         <v>40</v>
@@ -9319,11 +9348,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9348,7 +9377,7 @@
         <v>113</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>115</v>
@@ -9401,7 +9430,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9428,9 +9457,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9444,7 +9473,7 @@
         <v>50</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>40</v>
@@ -9453,13 +9482,13 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>315</v>
+        <v>355</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>316</v>
+        <v>356</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9486,13 +9515,13 @@
         <v>40</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>317</v>
+        <v>40</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>40</v>
@@ -9510,7 +9539,7 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>314</v>
+        <v>354</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9525,21 +9554,21 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>126</v>
+        <v>357</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>40</v>
+        <v>358</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9550,10 +9579,10 @@
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>40</v>
@@ -9562,13 +9591,13 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>270</v>
+        <v>360</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>320</v>
+        <v>361</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>321</v>
+        <v>362</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9619,36 +9648,36 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>319</v>
+        <v>359</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>322</v>
+        <v>363</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>40</v>
+        <v>364</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>323</v>
+        <v>365</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9659,7 +9688,7 @@
         <v>41</v>
       </c>
       <c r="F76" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G76" t="s" s="2">
         <v>40</v>
@@ -9671,16 +9700,18 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>130</v>
+        <v>366</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>131</v>
+        <v>367</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>132</v>
+        <v>368</v>
       </c>
       <c r="M76" s="2"/>
-      <c r="N76" s="2"/>
+      <c r="N76" t="s" s="2">
+        <v>369</v>
+      </c>
       <c r="O76" t="s" s="2">
         <v>40</v>
       </c>
@@ -9728,13 +9759,13 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>133</v>
+        <v>365</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>40</v>
@@ -9746,1226 +9777,17 @@
         <v>40</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>134</v>
+        <v>370</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="77" hidden="true">
-      <c r="A77" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D77" s="2"/>
-      <c r="E77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J77" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K77" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L77" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P77" s="2"/>
-      <c r="Q77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG77" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK77" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AL77" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM77" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="78" hidden="true">
-      <c r="A78" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="B78" s="2"/>
-      <c r="C78" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I78" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J78" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K78" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L78" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M78" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N78" s="2"/>
-      <c r="O78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P78" s="2"/>
-      <c r="Q78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE78" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF78" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG78" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK78" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL78" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM78" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" hidden="true">
-      <c r="A79" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="B79" s="2"/>
-      <c r="C79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D79" s="2"/>
-      <c r="E79" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="F79" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J79" t="s" s="2">
-        <v>327</v>
-      </c>
-      <c r="K79" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="L79" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M79" s="2"/>
-      <c r="N79" s="2"/>
-      <c r="O79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P79" s="2"/>
-      <c r="Q79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE79" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="AF79" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AG79" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ79" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK79" t="s" s="2">
-        <v>286</v>
-      </c>
-      <c r="AL79" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM79" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" hidden="true">
-      <c r="A80" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="B80" s="2"/>
-      <c r="C80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D80" s="2"/>
-      <c r="E80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F80" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J80" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="K80" t="s" s="2">
-        <v>332</v>
-      </c>
-      <c r="L80" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="M80" s="2"/>
-      <c r="N80" s="2"/>
-      <c r="O80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P80" s="2"/>
-      <c r="Q80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE80" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AL80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM80" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="B81" s="2"/>
-      <c r="C81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D81" s="2"/>
-      <c r="E81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F81" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G81" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J81" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="K81" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="M81" s="2"/>
-      <c r="N81" s="2"/>
-      <c r="O81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P81" s="2"/>
-      <c r="Q81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE81" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AF81" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG81" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI81" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="AJ81" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK81" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="82" hidden="true">
-      <c r="A82" t="s" s="2">
-        <v>338</v>
-      </c>
-      <c r="B82" s="2"/>
-      <c r="C82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D82" s="2"/>
-      <c r="E82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F82" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J82" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="K82" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="L82" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
-      <c r="O82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P82" s="2"/>
-      <c r="Q82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE82" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AF82" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG82" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK82" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AL82" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM82" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM87" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM87">
+  <autoFilter ref="A1:AM76">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10975,7 +9797,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI75">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/medication-dh-base-1.xlsx
+++ b/output/SharedMedicinesList/medication-dh-base-1.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$82</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3029" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2857" uniqueCount="344">
   <si>
     <t>Path</t>
   </si>
@@ -676,58 +676,6 @@
     <t>A classifying type code to assist identifying a coding usage</t>
   </si>
   <si>
-    <t>Medication.code.coding.extension.id</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.extension.extension</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.extension.url</t>
-  </si>
-  <si>
-    <t>identifies the meaning of the extension</t>
-  </si>
-  <si>
-    <t>Source of the definition for the extension code - a logical name or a URL.</t>
-  </si>
-  <si>
-    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/StructureDefinition/medication-type</t>
-  </si>
-  <si>
-    <t>Extension.url</t>
-  </si>
-  <si>
-    <t>Medication.code.coding.extension.value[x]</t>
-  </si>
-  <si>
-    <t>Value of extension</t>
-  </si>
-  <si>
-    <t>Value of extension - may be a resource or one of a constrained set of the data types (see Extensibility in the spec for list).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
-  </si>
-  <si>
-    <t>Extension.value[x]</t>
-  </si>
-  <si>
-    <t>valueCoding</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/ValueSet/medication-type</t>
-  </si>
-  <si>
     <t>http://snomed.info/sct</t>
   </si>
   <si>
@@ -778,6 +726,9 @@
   </si>
   <si>
     <t>This status is not intended to specify if a medication is part of a formulary.</t>
+  </si>
+  <si>
+    <t>required</t>
   </si>
   <si>
     <t>A coded concept defining if the medication is in active use</t>
@@ -917,6 +868,13 @@
   </si>
   <si>
     <t>The actual ingredient - either a substance (simple ingredient) or another medication.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
   </si>
   <si>
     <t>.player</t>
@@ -1289,7 +1247,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM87"/>
+  <dimension ref="A1:AM82"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -5341,7 +5299,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>208</v>
+        <v>157</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5349,7 +5307,7 @@
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F37" t="s" s="2">
         <v>50</v>
@@ -5361,25 +5319,29 @@
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>131</v>
+        <v>158</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>161</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P37" s="2"/>
       <c r="Q37" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="R37" t="s" s="2">
         <v>40</v>
@@ -5421,7 +5383,7 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5439,29 +5401,29 @@
         <v>40</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="AL37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>40</v>
+        <v>165</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>209</v>
+        <v>166</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>40</v>
@@ -5470,19 +5432,19 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>136</v>
+        <v>167</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>115</v>
+        <v>169</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
@@ -5520,25 +5482,25 @@
         <v>40</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5550,18 +5512,18 @@
         <v>40</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="AL38" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>40</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5569,7 +5531,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>50</v>
@@ -5581,27 +5543,27 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="N39" s="2"/>
+        <v>175</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="O39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P39" s="2"/>
       <c r="Q39" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="R39" t="s" s="2">
         <v>40</v>
@@ -5643,10 +5605,10 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>215</v>
+        <v>177</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>50</v>
@@ -5661,18 +5623,18 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>93</v>
+        <v>178</v>
       </c>
       <c r="AL39" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>40</v>
+        <v>179</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5692,19 +5654,21 @@
         <v>40</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>217</v>
+        <v>181</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>218</v>
+        <v>182</v>
       </c>
       <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
+      <c r="N40" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O40" t="s" s="2">
         <v>40</v>
       </c>
@@ -5740,17 +5704,19 @@
         <v>40</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB40" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5768,28 +5734,26 @@
         <v>40</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="AL40" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="B41" t="s" s="2">
-        <v>222</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s" s="2">
         <v>50</v>
@@ -5801,19 +5765,23 @@
         <v>40</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>141</v>
+        <v>188</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>217</v>
+        <v>189</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>218</v>
-      </c>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>191</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O41" t="s" s="2">
         <v>40</v>
       </c>
@@ -5837,13 +5805,13 @@
         <v>40</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>206</v>
+        <v>40</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>224</v>
+        <v>40</v>
       </c>
       <c r="Z41" t="s" s="2">
         <v>40</v>
@@ -5861,7 +5829,7 @@
         <v>40</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>221</v>
+        <v>193</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -5879,26 +5847,28 @@
         <v>40</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>93</v>
+        <v>194</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="B42" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="B42" t="s" s="2">
+        <v>209</v>
+      </c>
       <c r="C42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s" s="2">
         <v>50</v>
@@ -5913,26 +5883,26 @@
         <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>158</v>
+        <v>210</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="O42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P42" s="2"/>
       <c r="Q42" t="s" s="2">
-        <v>225</v>
+        <v>40</v>
       </c>
       <c r="R42" t="s" s="2">
         <v>40</v>
@@ -5950,13 +5920,11 @@
         <v>40</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X42" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X42" s="2"/>
       <c r="Y42" t="s" s="2">
-        <v>40</v>
+        <v>211</v>
       </c>
       <c r="Z42" t="s" s="2">
         <v>40</v>
@@ -5974,13 +5942,13 @@
         <v>40</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH42" t="s" s="2">
         <v>40</v>
@@ -5992,18 +5960,18 @@
         <v>40</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="AL42" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>165</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>166</v>
+        <v>155</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6023,20 +5991,18 @@
         <v>40</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J43" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>169</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M43" s="2"/>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>40</v>
@@ -6085,7 +6051,7 @@
         <v>40</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6103,29 +6069,29 @@
         <v>40</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>171</v>
+        <v>134</v>
       </c>
       <c r="AL43" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>173</v>
+        <v>156</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>40</v>
@@ -6134,21 +6100,21 @@
         <v>40</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>174</v>
+        <v>136</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="M44" s="2"/>
-      <c r="N44" t="s" s="2">
-        <v>176</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="M44" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
         <v>40</v>
       </c>
@@ -6184,25 +6150,25 @@
         <v>40</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>40</v>
+        <v>98</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="AC44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>40</v>
@@ -6214,18 +6180,18 @@
         <v>40</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>178</v>
+        <v>134</v>
       </c>
       <c r="AL44" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6233,7 +6199,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>50</v>
@@ -6248,24 +6214,26 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>130</v>
+        <v>63</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M45" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>160</v>
+      </c>
       <c r="N45" t="s" s="2">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="O45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P45" s="2"/>
       <c r="Q45" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="R45" t="s" s="2">
         <v>40</v>
@@ -6307,7 +6275,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>184</v>
+        <v>163</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6325,18 +6293,18 @@
         <v>40</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>185</v>
+        <v>164</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>186</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>187</v>
+        <v>166</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6359,20 +6327,18 @@
         <v>51</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
@@ -6420,7 +6386,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6438,22 +6404,20 @@
         <v>40</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>195</v>
+        <v>172</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="B47" t="s" s="2">
-        <v>226</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
         <v>40</v>
       </c>
@@ -6474,19 +6438,17 @@
         <v>51</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>141</v>
+        <v>69</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>227</v>
+        <v>174</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>144</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" t="s" s="2">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="O47" t="s" s="2">
         <v>40</v>
@@ -6511,11 +6473,13 @@
         <v>40</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X47" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y47" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6533,13 +6497,13 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>147</v>
+        <v>177</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>40</v>
@@ -6551,18 +6515,18 @@
         <v>40</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>148</v>
+        <v>178</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>149</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>155</v>
+        <v>180</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6582,19 +6546,21 @@
         <v>40</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J48" t="s" s="2">
         <v>130</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>132</v>
+        <v>182</v>
       </c>
       <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
+      <c r="N48" t="s" s="2">
+        <v>183</v>
+      </c>
       <c r="O48" t="s" s="2">
         <v>40</v>
       </c>
@@ -6642,7 +6608,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>133</v>
+        <v>184</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6660,29 +6626,29 @@
         <v>40</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>134</v>
+        <v>185</v>
       </c>
       <c r="AL48" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>40</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>40</v>
@@ -6691,21 +6657,23 @@
         <v>40</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>136</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>137</v>
+        <v>190</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N49" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O49" t="s" s="2">
         <v>40</v>
       </c>
@@ -6741,25 +6709,25 @@
         <v>40</v>
       </c>
       <c r="AA49" t="s" s="2">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>138</v>
+        <v>40</v>
       </c>
       <c r="AC49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD49" t="s" s="2">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>139</v>
+        <v>193</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>40</v>
@@ -6771,18 +6739,18 @@
         <v>40</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>134</v>
+        <v>194</v>
       </c>
       <c r="AL49" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>40</v>
+        <v>195</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>157</v>
+        <v>213</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6790,7 +6758,7 @@
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s" s="2">
         <v>50</v>
@@ -6805,26 +6773,26 @@
         <v>51</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>158</v>
+        <v>214</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>159</v>
+        <v>215</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>160</v>
+        <v>216</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>161</v>
+        <v>217</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P50" s="2"/>
       <c r="Q50" t="s" s="2">
-        <v>229</v>
+        <v>40</v>
       </c>
       <c r="R50" t="s" s="2">
         <v>40</v>
@@ -6866,7 +6834,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>163</v>
+        <v>218</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6884,18 +6852,18 @@
         <v>40</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>164</v>
+        <v>219</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>165</v>
+        <v>220</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6909,7 +6877,7 @@
         <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>40</v>
@@ -6918,16 +6886,16 @@
         <v>51</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>167</v>
+        <v>222</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>168</v>
+        <v>223</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6953,13 +6921,13 @@
         <v>40</v>
       </c>
       <c r="W51" t="s" s="2">
-        <v>40</v>
+        <v>225</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="Z51" t="s" s="2">
         <v>40</v>
@@ -6977,7 +6945,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>170</v>
+        <v>221</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6995,18 +6963,18 @@
         <v>40</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>171</v>
+        <v>228</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>173</v>
+        <v>229</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7029,18 +6997,16 @@
         <v>51</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>69</v>
+        <v>188</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>174</v>
+        <v>230</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>175</v>
+        <v>231</v>
       </c>
       <c r="M52" s="2"/>
-      <c r="N52" t="s" s="2">
-        <v>176</v>
-      </c>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>40</v>
       </c>
@@ -7088,7 +7054,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7103,21 +7069,21 @@
         <v>40</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>178</v>
+        <v>233</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>179</v>
+        <v>40</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>180</v>
+        <v>234</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7140,18 +7106,16 @@
         <v>51</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>130</v>
+        <v>188</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>181</v>
+        <v>235</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>182</v>
+        <v>236</v>
       </c>
       <c r="M53" s="2"/>
-      <c r="N53" t="s" s="2">
-        <v>183</v>
-      </c>
+      <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>40</v>
       </c>
@@ -7199,7 +7163,7 @@
         <v>40</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>184</v>
+        <v>234</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7217,18 +7181,18 @@
         <v>40</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>185</v>
+        <v>237</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>40</v>
+        <v>127</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>187</v>
+        <v>238</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7242,7 +7206,7 @@
         <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>40</v>
@@ -7251,20 +7215,16 @@
         <v>51</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>192</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="M54" s="2"/>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>40</v>
       </c>
@@ -7312,7 +7272,7 @@
         <v>40</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>193</v>
+        <v>238</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7327,21 +7287,21 @@
         <v>40</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>194</v>
+        <v>242</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>195</v>
+        <v>244</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7355,29 +7315,27 @@
         <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>40</v>
       </c>
@@ -7401,13 +7359,11 @@
         <v>40</v>
       </c>
       <c r="W55" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X55" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X55" s="2"/>
       <c r="Y55" t="s" s="2">
-        <v>40</v>
+        <v>249</v>
       </c>
       <c r="Z55" t="s" s="2">
         <v>40</v>
@@ -7425,7 +7381,7 @@
         <v>40</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7440,21 +7396,21 @@
         <v>40</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>236</v>
+        <v>251</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>237</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7465,7 +7421,7 @@
         <v>41</v>
       </c>
       <c r="F56" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G56" t="s" s="2">
         <v>51</v>
@@ -7474,19 +7430,19 @@
         <v>40</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>69</v>
+        <v>254</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>239</v>
+        <v>255</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>240</v>
+        <v>256</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>241</v>
+        <v>257</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
@@ -7512,13 +7468,13 @@
         <v>40</v>
       </c>
       <c r="W56" t="s" s="2">
-        <v>223</v>
+        <v>40</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>242</v>
+        <v>40</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>243</v>
+        <v>40</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7536,25 +7492,25 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>238</v>
+        <v>253</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>40</v>
+        <v>258</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>244</v>
+        <v>259</v>
       </c>
       <c r="AL56" t="s" s="2">
         <v>40</v>
@@ -7565,7 +7521,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7585,16 +7541,16 @@
         <v>40</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>246</v>
+        <v>131</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>247</v>
+        <v>132</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7645,7 +7601,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>245</v>
+        <v>133</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7660,13 +7616,13 @@
         <v>40</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>249</v>
+        <v>134</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>40</v>
@@ -7674,18 +7630,18 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>250</v>
+        <v>261</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G58" t="s" s="2">
         <v>40</v>
@@ -7694,18 +7650,20 @@
         <v>40</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>251</v>
+        <v>136</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="M58" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
         <v>40</v>
@@ -7754,13 +7712,13 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>250</v>
+        <v>139</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG58" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH58" t="s" s="2">
         <v>40</v>
@@ -7772,49 +7730,51 @@
         <v>40</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>253</v>
+        <v>134</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>127</v>
+        <v>40</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G59" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H59" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H59" t="s" s="2">
-        <v>40</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>255</v>
+        <v>95</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>256</v>
+        <v>113</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>257</v>
-      </c>
-      <c r="M59" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
         <v>40</v>
@@ -7863,13 +7823,13 @@
         <v>40</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>254</v>
+        <v>265</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>40</v>
@@ -7878,21 +7838,21 @@
         <v>40</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>258</v>
+        <v>93</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>259</v>
+        <v>40</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>260</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7900,7 +7860,7 @@
       </c>
       <c r="D60" s="2"/>
       <c r="E60" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F60" t="s" s="2">
         <v>50</v>
@@ -7915,17 +7875,15 @@
         <v>40</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="M60" t="s" s="2">
-        <v>264</v>
-      </c>
+        <v>269</v>
+      </c>
+      <c r="M60" s="2"/>
       <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
         <v>40</v>
@@ -7950,32 +7908,32 @@
         <v>40</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X60" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y60" t="s" s="2">
-        <v>265</v>
+        <v>40</v>
       </c>
       <c r="Z60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB60" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="AB60" s="2"/>
       <c r="AC60" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD60" t="s" s="2">
-        <v>40</v>
+        <v>271</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>50</v>
@@ -7987,23 +7945,25 @@
         <v>40</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="61" hidden="true">
+      <c r="A61" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AK60" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="B61" s="2"/>
+      <c r="B61" t="s" s="2">
+        <v>274</v>
+      </c>
       <c r="C61" t="s" s="2">
         <v>40</v>
       </c>
@@ -8012,10 +7972,10 @@
         <v>41</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>40</v>
@@ -8024,17 +7984,15 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>270</v>
+        <v>118</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="M61" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>276</v>
+      </c>
+      <c r="M61" s="2"/>
       <c r="N61" s="2"/>
       <c r="O61" t="s" s="2">
         <v>40</v>
@@ -8059,13 +8017,11 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X61" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X61" s="2"/>
       <c r="Y61" t="s" s="2">
-        <v>40</v>
+        <v>277</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
@@ -8083,38 +8039,40 @@
         <v>40</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI61" t="s" s="2">
-        <v>274</v>
+        <v>40</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="AL61" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>276</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>266</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>278</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>40</v>
       </c>
@@ -8135,13 +8093,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>130</v>
+        <v>279</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>131</v>
+        <v>280</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>132</v>
+        <v>269</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8192,10 +8150,10 @@
         <v>40</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>133</v>
+        <v>266</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>50</v>
@@ -8207,35 +8165,35 @@
         <v>40</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>40</v>
+        <v>125</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>134</v>
+        <v>272</v>
       </c>
       <c r="AL62" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>40</v>
+        <v>273</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>40</v>
@@ -8244,18 +8202,18 @@
         <v>40</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>95</v>
+        <v>188</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>136</v>
+        <v>282</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>283</v>
+      </c>
+      <c r="M63" s="2"/>
+      <c r="N63" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="O63" t="s" s="2">
         <v>40</v>
       </c>
@@ -8303,13 +8261,13 @@
         <v>40</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>139</v>
+        <v>281</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>40</v>
@@ -8321,7 +8279,7 @@
         <v>40</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>134</v>
+        <v>237</v>
       </c>
       <c r="AL63" t="s" s="2">
         <v>40</v>
@@ -8330,42 +8288,40 @@
         <v>40</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>279</v>
+        <v>40</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F64" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>95</v>
+        <v>286</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>113</v>
+        <v>287</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M64" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>288</v>
+      </c>
+      <c r="M64" s="2"/>
       <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>40</v>
@@ -8414,13 +8370,13 @@
         <v>40</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG64" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH64" t="s" s="2">
         <v>40</v>
@@ -8429,21 +8385,21 @@
         <v>40</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>40</v>
+        <v>289</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>93</v>
+        <v>290</v>
       </c>
       <c r="AL64" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>40</v>
+        <v>291</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8451,7 +8407,7 @@
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s" s="2">
         <v>50</v>
@@ -8466,13 +8422,13 @@
         <v>40</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8511,20 +8467,22 @@
         <v>40</v>
       </c>
       <c r="AA65" t="s" s="2">
-        <v>219</v>
-      </c>
-      <c r="AB65" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD65" t="s" s="2">
-        <v>220</v>
+        <v>40</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>50</v>
@@ -8533,28 +8491,26 @@
         <v>40</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>125</v>
+        <v>232</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="AL65" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B66" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>297</v>
+      </c>
+      <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
         <v>40</v>
       </c>
@@ -8575,13 +8531,13 @@
         <v>40</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>289</v>
+        <v>131</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>290</v>
+        <v>132</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8608,11 +8564,13 @@
         <v>40</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X66" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y66" t="s" s="2">
-        <v>291</v>
+        <v>40</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>40</v>
@@ -8630,10 +8588,10 @@
         <v>40</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>282</v>
+        <v>133</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>50</v>
@@ -8645,34 +8603,32 @@
         <v>40</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="B67" t="s" s="2">
-        <v>292</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
-        <v>40</v>
+        <v>112</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G67" t="s" s="2">
         <v>40</v>
@@ -8684,15 +8640,17 @@
         <v>40</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>293</v>
+        <v>95</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>294</v>
+        <v>136</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="M67" s="2"/>
+        <v>137</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
         <v>40</v>
@@ -8741,13 +8699,13 @@
         <v>40</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>282</v>
+        <v>139</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG67" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH67" t="s" s="2">
         <v>40</v>
@@ -8756,55 +8714,55 @@
         <v>40</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>125</v>
+        <v>40</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>286</v>
+        <v>134</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>287</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G68" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H68" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H68" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I68" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>188</v>
+        <v>95</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>296</v>
+        <v>113</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M68" s="2"/>
-      <c r="N68" t="s" s="2">
-        <v>298</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
         <v>40</v>
       </c>
@@ -8852,13 +8810,13 @@
         <v>40</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>40</v>
@@ -8870,7 +8828,7 @@
         <v>40</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>253</v>
+        <v>93</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>40</v>
@@ -8879,9 +8837,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
@@ -8895,7 +8853,7 @@
         <v>50</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>40</v>
@@ -8904,7 +8862,7 @@
         <v>40</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>300</v>
+        <v>118</v>
       </c>
       <c r="K69" t="s" s="2">
         <v>301</v>
@@ -8937,13 +8895,13 @@
         <v>40</v>
       </c>
       <c r="W69" t="s" s="2">
-        <v>40</v>
+        <v>122</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>40</v>
+        <v>303</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>40</v>
+        <v>304</v>
       </c>
       <c r="Z69" t="s" s="2">
         <v>40</v>
@@ -8961,7 +8919,7 @@
         <v>40</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -8976,21 +8934,21 @@
         <v>40</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>303</v>
+        <v>232</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>304</v>
+        <v>126</v>
       </c>
       <c r="AL69" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM69" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" hidden="true">
+      <c r="A70" t="s" s="2">
         <v>305</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="s" s="2">
-        <v>306</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9001,10 +8959,10 @@
         <v>41</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G70" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H70" t="s" s="2">
         <v>40</v>
@@ -9013,13 +8971,13 @@
         <v>40</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>270</v>
+        <v>254</v>
       </c>
       <c r="K70" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="L70" t="s" s="2">
         <v>307</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>308</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9070,25 +9028,25 @@
         <v>40</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>309</v>
+        <v>295</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="AK70" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="AL70" t="s" s="2">
         <v>40</v>
@@ -9099,7 +9057,7 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9208,7 +9166,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9319,11 +9277,11 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9348,7 +9306,7 @@
         <v>113</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>280</v>
+        <v>264</v>
       </c>
       <c r="M73" t="s" s="2">
         <v>115</v>
@@ -9401,7 +9359,7 @@
         <v>40</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>281</v>
+        <v>265</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9430,7 +9388,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9438,7 +9396,7 @@
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F74" t="s" s="2">
         <v>50</v>
@@ -9453,13 +9411,13 @@
         <v>40</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>118</v>
+        <v>313</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="L74" t="s" s="2">
         <v>315</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>316</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9486,13 +9444,13 @@
         <v>40</v>
       </c>
       <c r="W74" t="s" s="2">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>317</v>
+        <v>40</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>318</v>
+        <v>40</v>
       </c>
       <c r="Z74" t="s" s="2">
         <v>40</v>
@@ -9510,10 +9468,10 @@
         <v>40</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>50</v>
@@ -9525,10 +9483,10 @@
         <v>40</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>126</v>
+        <v>272</v>
       </c>
       <c r="AL74" t="s" s="2">
         <v>40</v>
@@ -9539,7 +9497,7 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9550,7 +9508,7 @@
         <v>41</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>40</v>
@@ -9562,13 +9520,13 @@
         <v>40</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>270</v>
+        <v>317</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9619,25 +9577,25 @@
         <v>40</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI75" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>322</v>
+        <v>290</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>40</v>
@@ -9646,9 +9604,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" t="s" s="2">
@@ -9662,7 +9620,7 @@
         <v>50</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>40</v>
@@ -9671,13 +9629,13 @@
         <v>40</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>131</v>
+        <v>321</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>132</v>
+        <v>322</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9728,25 +9686,25 @@
         <v>40</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>133</v>
+        <v>320</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI76" t="s" s="2">
-        <v>40</v>
+        <v>295</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>40</v>
+        <v>232</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>134</v>
+        <v>323</v>
       </c>
       <c r="AL76" t="s" s="2">
         <v>40</v>
@@ -9761,14 +9719,14 @@
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F77" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G77" t="s" s="2">
         <v>40</v>
@@ -9780,17 +9738,15 @@
         <v>40</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M77" t="s" s="2">
-        <v>115</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="M77" s="2"/>
       <c r="N77" s="2"/>
       <c r="O77" t="s" s="2">
         <v>40</v>
@@ -9839,13 +9795,13 @@
         <v>40</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>40</v>
@@ -9872,7 +9828,7 @@
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
-        <v>279</v>
+        <v>112</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -9885,19 +9841,19 @@
         <v>40</v>
       </c>
       <c r="H78" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I78" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J78" t="s" s="2">
         <v>95</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>113</v>
+        <v>136</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>280</v>
+        <v>137</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>115</v>
@@ -9950,7 +9906,7 @@
         <v>40</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>281</v>
+        <v>139</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>41</v>
@@ -9968,7 +9924,7 @@
         <v>40</v>
       </c>
       <c r="AK78" t="s" s="2">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="AL78" t="s" s="2">
         <v>40</v>
@@ -9983,34 +9939,36 @@
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>40</v>
+        <v>263</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>40</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I79" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>327</v>
+        <v>95</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>328</v>
+        <v>113</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>329</v>
-      </c>
-      <c r="M79" s="2"/>
+        <v>264</v>
+      </c>
+      <c r="M79" t="s" s="2">
+        <v>115</v>
+      </c>
       <c r="N79" s="2"/>
       <c r="O79" t="s" s="2">
         <v>40</v>
@@ -10059,13 +10017,13 @@
         <v>40</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>326</v>
+        <v>265</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>40</v>
@@ -10074,10 +10032,10 @@
         <v>40</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>248</v>
+        <v>40</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>286</v>
+        <v>93</v>
       </c>
       <c r="AL79" t="s" s="2">
         <v>40</v>
@@ -10086,9 +10044,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10102,7 +10060,7 @@
         <v>50</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>40</v>
@@ -10111,13 +10069,13 @@
         <v>40</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>331</v>
+        <v>130</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10168,36 +10126,36 @@
         <v>40</v>
       </c>
       <c r="AE80" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="AF80" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG80" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI80" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ80" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="AK80" t="s" s="2">
         <v>330</v>
       </c>
-      <c r="AF80" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG80" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI80" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ80" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK80" t="s" s="2">
-        <v>304</v>
-      </c>
       <c r="AL80" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>40</v>
+        <v>331</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10220,13 +10178,13 @@
         <v>40</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>270</v>
+        <v>333</v>
       </c>
       <c r="K81" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L81" t="s" s="2">
         <v>335</v>
-      </c>
-      <c r="L81" t="s" s="2">
-        <v>336</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10277,31 +10235,31 @@
         <v>40</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI81" t="s" s="2">
-        <v>309</v>
+        <v>40</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="AK81" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AL81" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM81" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="AL81" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM81" t="s" s="2">
-        <v>40</v>
       </c>
     </row>
     <row r="82" hidden="true">
@@ -10317,7 +10275,7 @@
         <v>41</v>
       </c>
       <c r="F82" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G82" t="s" s="2">
         <v>40</v>
@@ -10329,16 +10287,18 @@
         <v>40</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>130</v>
+        <v>339</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>131</v>
+        <v>340</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>132</v>
+        <v>341</v>
       </c>
       <c r="M82" s="2"/>
-      <c r="N82" s="2"/>
+      <c r="N82" t="s" s="2">
+        <v>342</v>
+      </c>
       <c r="O82" t="s" s="2">
         <v>40</v>
       </c>
@@ -10386,13 +10346,13 @@
         <v>40</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>133</v>
+        <v>338</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>40</v>
@@ -10404,568 +10364,17 @@
         <v>40</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>134</v>
+        <v>343</v>
       </c>
       <c r="AL82" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" hidden="true">
-      <c r="A83" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="B83" s="2"/>
-      <c r="C83" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="D83" s="2"/>
-      <c r="E83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J83" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K83" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="L83" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N83" s="2"/>
-      <c r="O83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P83" s="2"/>
-      <c r="Q83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE83" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="AF83" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG83" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK83" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="AL83" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM83" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" hidden="true">
-      <c r="A84" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="B84" s="2"/>
-      <c r="C84" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="D84" s="2"/>
-      <c r="E84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H84" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="I84" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J84" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="K84" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L84" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="M84" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N84" s="2"/>
-      <c r="O84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE84" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AF84" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG84" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK84" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AL84" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM84" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="B85" s="2"/>
-      <c r="C85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D85" s="2"/>
-      <c r="E85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F85" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G85" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J85" t="s" s="2">
-        <v>130</v>
-      </c>
-      <c r="K85" t="s" s="2">
-        <v>342</v>
-      </c>
-      <c r="L85" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
-      <c r="O85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE85" t="s" s="2">
-        <v>341</v>
-      </c>
-      <c r="AF85" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG85" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ85" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK85" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="AL85" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM85" t="s" s="2">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B86" s="2"/>
-      <c r="C86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D86" s="2"/>
-      <c r="E86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F86" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="G86" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="H86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J86" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="K86" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="L86" t="s" s="2">
-        <v>349</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
-      <c r="O86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE86" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="AF86" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG86" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ86" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK86" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="AL86" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM86" t="s" s="2">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="87" hidden="true">
-      <c r="A87" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="B87" s="2"/>
-      <c r="C87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="D87" s="2"/>
-      <c r="E87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="F87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="G87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="H87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J87" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="K87" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="L87" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="M87" s="2"/>
-      <c r="N87" t="s" s="2">
-        <v>356</v>
-      </c>
-      <c r="O87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="R87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="S87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="T87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="U87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="V87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="W87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Y87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="Z87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AA87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE87" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AF87" t="s" s="2">
-        <v>41</v>
-      </c>
-      <c r="AG87" t="s" s="2">
-        <v>42</v>
-      </c>
-      <c r="AH87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AI87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AK87" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="AL87" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM87" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM87">
+  <autoFilter ref="A1:AM82">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -10975,7 +10384,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI81">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/output/SharedMedicinesList/medication-dh-base-1.xlsx
+++ b/output/SharedMedicinesList/medication-dh-base-1.xlsx
@@ -883,18 +883,6 @@
     <t>RXC-2-Component Code  if medication: RXO-1-Requested Give Code / RXE-2-Give Code / RXD-2-Dispense/Give Code / RXG-4-Give Code / RXA-5-Administered Code</t>
   </si>
   <si>
-    <t>itemCodeableConcept</t>
-  </si>
-  <si>
-    <t>Coded Ingredient Product</t>
-  </si>
-  <si>
-    <t>Coding for a substance or medicinal product  that is an ingredient of the medication.</t>
-  </si>
-  <si>
-    <t>http://hl7.org.au/fhir/ValueSet/amt-mp-codes</t>
-  </si>
-  <si>
     <t>itemReference</t>
   </si>
   <si>
@@ -903,6 +891,18 @@
   </si>
   <si>
     <t>Item Reference</t>
+  </si>
+  <si>
+    <t>itemCodeableConcept</t>
+  </si>
+  <si>
+    <t>Coded Ingredient Product</t>
+  </si>
+  <si>
+    <t>Coding for a substance or medicinal product  that is an ingredient of the medication.</t>
+  </si>
+  <si>
+    <t>http://hl7.org.au/fhir/ValueSet/amt-mp-codes</t>
   </si>
   <si>
     <t>Medication.ingredient.isActive</t>
@@ -7984,13 +7984,13 @@
         <v>40</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>118</v>
+        <v>275</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8017,11 +8017,13 @@
         <v>40</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="X61" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="Y61" t="s" s="2">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>40</v>
@@ -8071,7 +8073,7 @@
         <v>266</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>40</v>
@@ -8093,13 +8095,13 @@
         <v>40</v>
       </c>
       <c r="J62" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>279</v>
-      </c>
-      <c r="K62" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>269</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8126,13 +8128,11 @@
         <v>40</v>
       </c>
       <c r="W62" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="X62" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="X62" s="2"/>
       <c r="Y62" t="s" s="2">
-        <v>40</v>
+        <v>280</v>
       </c>
       <c r="Z62" t="s" s="2">
         <v>40</v>
